--- a/database/industries/lastic/petayer/product/monthly.xlsx
+++ b/database/industries/lastic/petayer/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3087C783-8683-42F3-BE8B-349D68237CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45CFF52-1D59-4CF8-AA44-CDF091A49DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پتایر-ایران‌ تایر</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -730,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1543,11 +1543,11 @@
       <c r="AX11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ11" s="11" t="s">
-        <v>57</v>
+      <c r="AY11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1621,11 +1621,11 @@
       <c r="W12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>57</v>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0</v>
       </c>
       <c r="Z12" s="13">
         <v>0</v>
@@ -1645,11 +1645,11 @@
       <c r="AE12" s="13">
         <v>0</v>
       </c>
-      <c r="AF12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
+      <c r="AF12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH12" s="13" t="s">
         <v>57</v>
@@ -1715,7 +1715,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1724,157 +1724,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="F13" s="11">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="G13" s="11">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="H13" s="11">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="I13" s="11">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="J13" s="11">
-        <v>550</v>
+        <v>664</v>
       </c>
       <c r="K13" s="11">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="L13" s="11">
-        <v>664</v>
+        <v>483</v>
       </c>
       <c r="M13" s="11">
-        <v>724</v>
+        <v>570</v>
       </c>
       <c r="N13" s="11">
-        <v>483</v>
+        <v>772</v>
       </c>
       <c r="O13" s="11">
-        <v>570</v>
+        <v>649</v>
       </c>
       <c r="P13" s="11">
+        <v>735</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>727</v>
+      </c>
+      <c r="R13" s="11">
+        <v>828</v>
+      </c>
+      <c r="S13" s="11">
+        <v>776</v>
+      </c>
+      <c r="T13" s="11">
+        <v>655</v>
+      </c>
+      <c r="U13" s="11">
+        <v>905</v>
+      </c>
+      <c r="V13" s="11">
+        <v>838</v>
+      </c>
+      <c r="W13" s="11">
+        <v>938</v>
+      </c>
+      <c r="X13" s="11">
+        <v>922</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>822</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>809</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>770</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>744</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>884</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>861</v>
+      </c>
+      <c r="AE13" s="11">
+        <v>657</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>636</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>741</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>757</v>
+      </c>
+      <c r="AI13" s="11">
         <v>772</v>
       </c>
-      <c r="Q13" s="11">
-        <v>649</v>
-      </c>
-      <c r="R13" s="11">
-        <v>735</v>
-      </c>
-      <c r="S13" s="11">
-        <v>727</v>
-      </c>
-      <c r="T13" s="11">
-        <v>828</v>
-      </c>
-      <c r="U13" s="11">
-        <v>776</v>
-      </c>
-      <c r="V13" s="11">
-        <v>655</v>
-      </c>
-      <c r="W13" s="11">
-        <v>905</v>
-      </c>
-      <c r="X13" s="11">
-        <v>838</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>938</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>922</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>822</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>809</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>770</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>744</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>884</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>861</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>657</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>636</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>741</v>
-      </c>
       <c r="AJ13" s="11">
-        <v>757</v>
+        <v>563</v>
       </c>
       <c r="AK13" s="11">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="AL13" s="11">
-        <v>563</v>
+        <v>679</v>
       </c>
       <c r="AM13" s="11">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="AN13" s="11">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO13" s="11">
         <v>760</v>
       </c>
       <c r="AP13" s="11">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AQ13" s="11">
-        <v>760</v>
+        <v>667</v>
       </c>
       <c r="AR13" s="11">
-        <v>675</v>
+        <v>615</v>
       </c>
       <c r="AS13" s="11">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="AT13" s="11">
-        <v>615</v>
+        <v>712</v>
       </c>
       <c r="AU13" s="11">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="AV13" s="11">
-        <v>712</v>
+        <v>477</v>
       </c>
       <c r="AW13" s="11">
-        <v>673</v>
+        <v>297</v>
       </c>
       <c r="AX13" s="11">
-        <v>477</v>
+        <v>654</v>
       </c>
       <c r="AY13" s="11">
-        <v>297</v>
+        <v>717</v>
       </c>
       <c r="AZ13" s="11">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="BA13" s="11">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="BB13" s="11">
-        <v>730</v>
+        <v>627</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1883,157 +1883,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1115</v>
+        <v>1215</v>
       </c>
       <c r="F14" s="13">
-        <v>1108</v>
+        <v>1319</v>
       </c>
       <c r="G14" s="13">
-        <v>1215</v>
+        <v>1281</v>
       </c>
       <c r="H14" s="13">
-        <v>1319</v>
+        <v>1132</v>
       </c>
       <c r="I14" s="13">
-        <v>1281</v>
+        <v>1408</v>
       </c>
       <c r="J14" s="13">
-        <v>1132</v>
+        <v>1282</v>
       </c>
       <c r="K14" s="13">
-        <v>1408</v>
+        <v>1293</v>
       </c>
       <c r="L14" s="13">
-        <v>1282</v>
+        <v>1067</v>
       </c>
       <c r="M14" s="13">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="N14" s="13">
-        <v>1067</v>
+        <v>1453</v>
       </c>
       <c r="O14" s="13">
-        <v>1283</v>
+        <v>1486</v>
       </c>
       <c r="P14" s="13">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="Q14" s="13">
-        <v>1486</v>
+        <v>1525</v>
       </c>
       <c r="R14" s="13">
-        <v>1448</v>
+        <v>1473</v>
       </c>
       <c r="S14" s="13">
-        <v>1525</v>
+        <v>1306</v>
       </c>
       <c r="T14" s="13">
-        <v>1473</v>
+        <v>1181</v>
       </c>
       <c r="U14" s="13">
-        <v>1306</v>
+        <v>1573</v>
       </c>
       <c r="V14" s="13">
-        <v>1181</v>
+        <v>1475</v>
       </c>
       <c r="W14" s="13">
-        <v>1573</v>
+        <v>1479</v>
       </c>
       <c r="X14" s="13">
-        <v>1475</v>
+        <v>1431</v>
       </c>
       <c r="Y14" s="13">
-        <v>1479</v>
+        <v>1432</v>
       </c>
       <c r="Z14" s="13">
-        <v>1431</v>
+        <v>1532</v>
       </c>
       <c r="AA14" s="13">
-        <v>1432</v>
+        <v>1494</v>
       </c>
       <c r="AB14" s="13">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="AC14" s="13">
-        <v>1494</v>
+        <v>1506</v>
       </c>
       <c r="AD14" s="13">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="AE14" s="13">
-        <v>1506</v>
+        <v>1435</v>
       </c>
       <c r="AF14" s="13">
-        <v>1540</v>
+        <v>1274</v>
       </c>
       <c r="AG14" s="13">
-        <v>1435</v>
+        <v>1502</v>
       </c>
       <c r="AH14" s="13">
-        <v>1274</v>
+        <v>1499</v>
       </c>
       <c r="AI14" s="13">
-        <v>1502</v>
+        <v>1472</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1499</v>
+        <v>1056</v>
       </c>
       <c r="AK14" s="13">
-        <v>1472</v>
+        <v>1575</v>
       </c>
       <c r="AL14" s="13">
-        <v>1056</v>
+        <v>1480</v>
       </c>
       <c r="AM14" s="13">
-        <v>1575</v>
+        <v>1637</v>
       </c>
       <c r="AN14" s="13">
-        <v>1480</v>
+        <v>1641</v>
       </c>
       <c r="AO14" s="13">
         <v>1637</v>
       </c>
       <c r="AP14" s="13">
-        <v>1641</v>
+        <v>1544</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1637</v>
+        <v>1513</v>
       </c>
       <c r="AR14" s="13">
-        <v>1544</v>
+        <v>1371</v>
       </c>
       <c r="AS14" s="13">
-        <v>1513</v>
+        <v>1592</v>
       </c>
       <c r="AT14" s="13">
-        <v>1371</v>
+        <v>1732</v>
       </c>
       <c r="AU14" s="13">
-        <v>1592</v>
+        <v>1699</v>
       </c>
       <c r="AV14" s="13">
-        <v>1732</v>
+        <v>1541</v>
       </c>
       <c r="AW14" s="13">
-        <v>1699</v>
+        <v>1749</v>
       </c>
       <c r="AX14" s="13">
-        <v>1541</v>
+        <v>1621</v>
       </c>
       <c r="AY14" s="13">
-        <v>1749</v>
+        <v>1659</v>
       </c>
       <c r="AZ14" s="13">
-        <v>1621</v>
+        <v>1734</v>
       </c>
       <c r="BA14" s="13">
-        <v>1659</v>
+        <v>1590</v>
       </c>
       <c r="BB14" s="13">
-        <v>1734</v>
+        <v>1666</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2042,157 +2042,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11">
         <v>13</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
       <c r="J15" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L15" s="11">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M15" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" s="11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O15" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P15" s="11">
         <v>19</v>
       </c>
       <c r="Q15" s="11">
+        <v>19</v>
+      </c>
+      <c r="R15" s="11">
         <v>20</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
+        <v>18</v>
+      </c>
+      <c r="T15" s="11">
+        <v>17</v>
+      </c>
+      <c r="U15" s="11">
+        <v>16</v>
+      </c>
+      <c r="V15" s="11">
+        <v>2</v>
+      </c>
+      <c r="W15" s="11">
         <v>19</v>
       </c>
-      <c r="S15" s="11">
+      <c r="X15" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>17</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>9</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>15</v>
+      </c>
+      <c r="AC15" s="11">
         <v>19</v>
       </c>
-      <c r="T15" s="11">
-        <v>20</v>
-      </c>
-      <c r="U15" s="11">
+      <c r="AD15" s="11">
         <v>18</v>
       </c>
-      <c r="V15" s="11">
-        <v>17</v>
-      </c>
-      <c r="W15" s="11">
+      <c r="AE15" s="11">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>15</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL15" s="11">
         <v>16</v>
       </c>
-      <c r="X15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>19</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>20</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>17</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>9</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>15</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>19</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>18</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>18</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>15</v>
-      </c>
-      <c r="AI15" s="11">
+      <c r="AM15" s="11">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="11">
         <v>14</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>5</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>12</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>12</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>16</v>
       </c>
       <c r="AO15" s="11">
         <v>12</v>
       </c>
       <c r="AP15" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ15" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR15" s="11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS15" s="11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AT15" s="11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AU15" s="11">
         <v>11</v>
       </c>
       <c r="AV15" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW15" s="11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX15" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" s="11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ15" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA15" s="11">
         <v>19</v>
       </c>
       <c r="BB15" s="11">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
@@ -2314,11 +2314,11 @@
       <c r="W17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>57</v>
+      <c r="X17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2338,11 +2338,11 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>57</v>
@@ -2408,7 +2408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>63</v>
       </c>
@@ -2468,11 +2468,11 @@
       <c r="V18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>57</v>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
       </c>
       <c r="Y18" s="15">
         <v>0</v>
@@ -2565,164 +2565,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17">
-        <v>1833</v>
+        <v>1908</v>
       </c>
       <c r="F19" s="17">
-        <v>1889</v>
+        <v>1986</v>
       </c>
       <c r="G19" s="17">
-        <v>1908</v>
+        <v>1914</v>
       </c>
       <c r="H19" s="17">
-        <v>1986</v>
+        <v>1691</v>
       </c>
       <c r="I19" s="17">
-        <v>1914</v>
+        <v>2139</v>
       </c>
       <c r="J19" s="17">
-        <v>1691</v>
+        <v>1954</v>
       </c>
       <c r="K19" s="17">
-        <v>2139</v>
+        <v>2031</v>
       </c>
       <c r="L19" s="17">
-        <v>1954</v>
+        <v>1564</v>
       </c>
       <c r="M19" s="17">
-        <v>2031</v>
+        <v>1868</v>
       </c>
       <c r="N19" s="17">
-        <v>1564</v>
+        <v>2244</v>
       </c>
       <c r="O19" s="17">
-        <v>1868</v>
+        <v>2155</v>
       </c>
       <c r="P19" s="17">
-        <v>2244</v>
+        <v>2202</v>
       </c>
       <c r="Q19" s="17">
-        <v>2155</v>
+        <v>2271</v>
       </c>
       <c r="R19" s="17">
-        <v>2202</v>
+        <v>2321</v>
       </c>
       <c r="S19" s="17">
+        <v>2100</v>
+      </c>
+      <c r="T19" s="17">
+        <v>1853</v>
+      </c>
+      <c r="U19" s="17">
+        <v>2494</v>
+      </c>
+      <c r="V19" s="17">
+        <v>2315</v>
+      </c>
+      <c r="W19" s="17">
+        <v>2436</v>
+      </c>
+      <c r="X19" s="17">
+        <v>2373</v>
+      </c>
+      <c r="Y19" s="17">
         <v>2271</v>
       </c>
-      <c r="T19" s="17">
-        <v>2321</v>
-      </c>
-      <c r="U19" s="17">
-        <v>2100</v>
-      </c>
-      <c r="V19" s="17">
-        <v>1853</v>
-      </c>
-      <c r="W19" s="17">
-        <v>2494</v>
-      </c>
-      <c r="X19" s="17">
-        <v>2315</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>2436</v>
-      </c>
       <c r="Z19" s="17">
-        <v>2373</v>
+        <v>2357</v>
       </c>
       <c r="AA19" s="17">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="AB19" s="17">
-        <v>2357</v>
+        <v>2276</v>
       </c>
       <c r="AC19" s="17">
-        <v>2273</v>
+        <v>2409</v>
       </c>
       <c r="AD19" s="17">
-        <v>2276</v>
+        <v>2419</v>
       </c>
       <c r="AE19" s="17">
+        <v>2110</v>
+      </c>
+      <c r="AF19" s="17">
+        <v>1925</v>
+      </c>
+      <c r="AG19" s="17">
+        <v>2257</v>
+      </c>
+      <c r="AH19" s="17">
+        <v>2261</v>
+      </c>
+      <c r="AI19" s="17">
+        <v>2256</v>
+      </c>
+      <c r="AJ19" s="17">
+        <v>1631</v>
+      </c>
+      <c r="AK19" s="17">
+        <v>2306</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>2175</v>
+      </c>
+      <c r="AM19" s="17">
         <v>2409</v>
       </c>
-      <c r="AF19" s="17">
-        <v>2419</v>
-      </c>
-      <c r="AG19" s="17">
-        <v>2110</v>
-      </c>
-      <c r="AH19" s="17">
-        <v>1925</v>
-      </c>
-      <c r="AI19" s="17">
-        <v>2257</v>
-      </c>
-      <c r="AJ19" s="17">
-        <v>2261</v>
-      </c>
-      <c r="AK19" s="17">
-        <v>2256</v>
-      </c>
-      <c r="AL19" s="17">
-        <v>1631</v>
-      </c>
-      <c r="AM19" s="17">
-        <v>2306</v>
-      </c>
       <c r="AN19" s="17">
-        <v>2175</v>
+        <v>2333</v>
       </c>
       <c r="AO19" s="17">
         <v>2409</v>
       </c>
       <c r="AP19" s="17">
-        <v>2333</v>
+        <v>2231</v>
       </c>
       <c r="AQ19" s="17">
-        <v>2409</v>
+        <v>2195</v>
       </c>
       <c r="AR19" s="17">
-        <v>2231</v>
+        <v>1994</v>
       </c>
       <c r="AS19" s="17">
-        <v>2195</v>
+        <v>2296</v>
       </c>
       <c r="AT19" s="17">
-        <v>1994</v>
+        <v>2455</v>
       </c>
       <c r="AU19" s="17">
+        <v>2383</v>
+      </c>
+      <c r="AV19" s="17">
+        <v>2031</v>
+      </c>
+      <c r="AW19" s="17">
+        <v>2059</v>
+      </c>
+      <c r="AX19" s="17">
+        <v>2289</v>
+      </c>
+      <c r="AY19" s="17">
+        <v>2395</v>
+      </c>
+      <c r="AZ19" s="17">
+        <v>2476</v>
+      </c>
+      <c r="BA19" s="17">
         <v>2296</v>
       </c>
-      <c r="AV19" s="17">
-        <v>2455</v>
-      </c>
-      <c r="AW19" s="17">
-        <v>2383</v>
-      </c>
-      <c r="AX19" s="17">
-        <v>2031</v>
-      </c>
-      <c r="AY19" s="17">
-        <v>2059</v>
-      </c>
-      <c r="AZ19" s="17">
-        <v>2289</v>
-      </c>
-      <c r="BA19" s="17">
-        <v>2395</v>
-      </c>
       <c r="BB19" s="17">
-        <v>2476</v>
+        <v>2312</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2777,7 +2777,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2887,7 +2887,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>65</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>55</v>
       </c>
@@ -3302,11 +3302,11 @@
       <c r="AX26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY26" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ26" s="11" t="s">
-        <v>57</v>
+      <c r="AY26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="11">
+        <v>0</v>
       </c>
       <c r="BA26" s="11">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>58</v>
       </c>
@@ -3380,11 +3380,11 @@
       <c r="W27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>57</v>
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="13">
+        <v>0</v>
       </c>
       <c r="Z27" s="13">
         <v>0</v>
@@ -3404,11 +3404,11 @@
       <c r="AE27" s="13">
         <v>0</v>
       </c>
-      <c r="AF27" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <v>0</v>
+      <c r="AF27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH27" s="13" t="s">
         <v>57</v>
@@ -3474,7 +3474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
@@ -3483,157 +3483,157 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>652</v>
+        <v>696</v>
       </c>
       <c r="F28" s="11">
-        <v>481</v>
+        <v>776</v>
       </c>
       <c r="G28" s="11">
-        <v>696</v>
+        <v>941</v>
       </c>
       <c r="H28" s="11">
-        <v>776</v>
+        <v>459</v>
       </c>
       <c r="I28" s="11">
-        <v>941</v>
+        <v>547</v>
       </c>
       <c r="J28" s="11">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="K28" s="11">
+        <v>1017</v>
+      </c>
+      <c r="L28" s="11">
+        <v>689</v>
+      </c>
+      <c r="M28" s="11">
+        <v>677</v>
+      </c>
+      <c r="N28" s="11">
+        <v>640</v>
+      </c>
+      <c r="O28" s="11">
+        <v>760</v>
+      </c>
+      <c r="P28" s="11">
+        <v>751</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>727</v>
+      </c>
+      <c r="R28" s="11">
+        <v>727</v>
+      </c>
+      <c r="S28" s="11">
+        <v>888</v>
+      </c>
+      <c r="T28" s="11">
+        <v>492</v>
+      </c>
+      <c r="U28" s="11">
+        <v>858</v>
+      </c>
+      <c r="V28" s="11">
+        <v>848</v>
+      </c>
+      <c r="W28" s="11">
+        <v>856</v>
+      </c>
+      <c r="X28" s="11">
+        <v>909</v>
+      </c>
+      <c r="Y28" s="11">
+        <v>1061</v>
+      </c>
+      <c r="Z28" s="11">
+        <v>997</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>703</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>456</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>1120</v>
+      </c>
+      <c r="AD28" s="11">
+        <v>753</v>
+      </c>
+      <c r="AE28" s="11">
+        <v>796</v>
+      </c>
+      <c r="AF28" s="11">
+        <v>515</v>
+      </c>
+      <c r="AG28" s="11">
+        <v>812</v>
+      </c>
+      <c r="AH28" s="11">
+        <v>589</v>
+      </c>
+      <c r="AI28" s="11">
+        <v>595</v>
+      </c>
+      <c r="AJ28" s="11">
+        <v>578</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>900</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>707</v>
+      </c>
+      <c r="AM28" s="11">
+        <v>530</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>839</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>682</v>
+      </c>
+      <c r="AP28" s="11">
         <v>547</v>
       </c>
-      <c r="L28" s="11">
-        <v>352</v>
-      </c>
-      <c r="M28" s="11">
-        <v>1017</v>
-      </c>
-      <c r="N28" s="11">
-        <v>689</v>
-      </c>
-      <c r="O28" s="11">
-        <v>677</v>
-      </c>
-      <c r="P28" s="11">
-        <v>640</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>760</v>
-      </c>
-      <c r="R28" s="11">
-        <v>751</v>
-      </c>
-      <c r="S28" s="11">
-        <v>727</v>
-      </c>
-      <c r="T28" s="11">
-        <v>727</v>
-      </c>
-      <c r="U28" s="11">
-        <v>888</v>
-      </c>
-      <c r="V28" s="11">
-        <v>492</v>
-      </c>
-      <c r="W28" s="11">
-        <v>858</v>
-      </c>
-      <c r="X28" s="11">
-        <v>848</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>856</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>909</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>1061</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>997</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>703</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>456</v>
-      </c>
-      <c r="AE28" s="11">
-        <v>1120</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>753</v>
-      </c>
-      <c r="AG28" s="11">
-        <v>796</v>
-      </c>
-      <c r="AH28" s="11">
-        <v>515</v>
-      </c>
-      <c r="AI28" s="11">
-        <v>812</v>
-      </c>
-      <c r="AJ28" s="11">
-        <v>589</v>
-      </c>
-      <c r="AK28" s="11">
-        <v>595</v>
-      </c>
-      <c r="AL28" s="11">
-        <v>578</v>
-      </c>
-      <c r="AM28" s="11">
-        <v>900</v>
-      </c>
-      <c r="AN28" s="11">
-        <v>707</v>
-      </c>
-      <c r="AO28" s="11">
-        <v>530</v>
-      </c>
-      <c r="AP28" s="11">
-        <v>839</v>
-      </c>
       <c r="AQ28" s="11">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="AR28" s="11">
-        <v>547</v>
+        <v>400</v>
       </c>
       <c r="AS28" s="11">
-        <v>650</v>
+        <v>528</v>
       </c>
       <c r="AT28" s="11">
-        <v>400</v>
+        <v>865</v>
       </c>
       <c r="AU28" s="11">
-        <v>528</v>
+        <v>835</v>
       </c>
       <c r="AV28" s="11">
-        <v>865</v>
+        <v>614</v>
       </c>
       <c r="AW28" s="11">
-        <v>835</v>
+        <v>582</v>
       </c>
       <c r="AX28" s="11">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="AY28" s="11">
-        <v>582</v>
+        <v>820</v>
       </c>
       <c r="AZ28" s="11">
-        <v>588</v>
+        <v>825</v>
       </c>
       <c r="BA28" s="11">
-        <v>820</v>
+        <v>679</v>
       </c>
       <c r="BB28" s="11">
-        <v>825</v>
+        <v>675</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>60</v>
       </c>
@@ -3642,157 +3642,157 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>554</v>
+        <v>1722</v>
       </c>
       <c r="F29" s="13">
-        <v>1135</v>
+        <v>1392</v>
       </c>
       <c r="G29" s="13">
-        <v>1722</v>
+        <v>1365</v>
       </c>
       <c r="H29" s="13">
-        <v>1392</v>
+        <v>647</v>
       </c>
       <c r="I29" s="13">
-        <v>1365</v>
+        <v>1225</v>
       </c>
       <c r="J29" s="13">
-        <v>647</v>
+        <v>487</v>
       </c>
       <c r="K29" s="13">
-        <v>1225</v>
+        <v>2037</v>
       </c>
       <c r="L29" s="13">
-        <v>487</v>
+        <v>1663</v>
       </c>
       <c r="M29" s="13">
-        <v>2037</v>
+        <v>1436</v>
       </c>
       <c r="N29" s="13">
-        <v>1663</v>
+        <v>1490</v>
       </c>
       <c r="O29" s="13">
-        <v>1436</v>
+        <v>1369</v>
       </c>
       <c r="P29" s="13">
-        <v>1490</v>
+        <v>1460</v>
       </c>
       <c r="Q29" s="13">
-        <v>1369</v>
+        <v>1452</v>
       </c>
       <c r="R29" s="13">
+        <v>1497</v>
+      </c>
+      <c r="S29" s="13">
+        <v>1393</v>
+      </c>
+      <c r="T29" s="13">
+        <v>1207</v>
+      </c>
+      <c r="U29" s="13">
+        <v>1518</v>
+      </c>
+      <c r="V29" s="13">
+        <v>1469</v>
+      </c>
+      <c r="W29" s="13">
+        <v>1512</v>
+      </c>
+      <c r="X29" s="13">
+        <v>1453</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>1422</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>1530</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>1150</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>1835</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>1480</v>
+      </c>
+      <c r="AD29" s="13">
+        <v>1519</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>1521</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>1230</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>1407</v>
+      </c>
+      <c r="AH29" s="13">
+        <v>1508</v>
+      </c>
+      <c r="AI29" s="13">
+        <v>1267</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>1238</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>1619</v>
+      </c>
+      <c r="AL29" s="13">
+        <v>1514</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>1299</v>
+      </c>
+      <c r="AN29" s="13">
+        <v>1872</v>
+      </c>
+      <c r="AO29" s="13">
+        <v>1528</v>
+      </c>
+      <c r="AP29" s="13">
+        <v>1494</v>
+      </c>
+      <c r="AQ29" s="13">
+        <v>1677</v>
+      </c>
+      <c r="AR29" s="13">
         <v>1460</v>
       </c>
-      <c r="S29" s="13">
-        <v>1452</v>
-      </c>
-      <c r="T29" s="13">
-        <v>1497</v>
-      </c>
-      <c r="U29" s="13">
-        <v>1393</v>
-      </c>
-      <c r="V29" s="13">
-        <v>1207</v>
-      </c>
-      <c r="W29" s="13">
-        <v>1518</v>
-      </c>
-      <c r="X29" s="13">
-        <v>1469</v>
-      </c>
-      <c r="Y29" s="13">
-        <v>1512</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>1453</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>1422</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>1530</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>1150</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>1835</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>1480</v>
-      </c>
-      <c r="AF29" s="13">
-        <v>1519</v>
-      </c>
-      <c r="AG29" s="13">
-        <v>1521</v>
-      </c>
-      <c r="AH29" s="13">
-        <v>1230</v>
-      </c>
-      <c r="AI29" s="13">
-        <v>1407</v>
-      </c>
-      <c r="AJ29" s="13">
-        <v>1508</v>
-      </c>
-      <c r="AK29" s="13">
-        <v>1267</v>
-      </c>
-      <c r="AL29" s="13">
-        <v>1238</v>
-      </c>
-      <c r="AM29" s="13">
-        <v>1619</v>
-      </c>
-      <c r="AN29" s="13">
-        <v>1514</v>
-      </c>
-      <c r="AO29" s="13">
-        <v>1299</v>
-      </c>
-      <c r="AP29" s="13">
-        <v>1872</v>
-      </c>
-      <c r="AQ29" s="13">
-        <v>1528</v>
-      </c>
-      <c r="AR29" s="13">
-        <v>1494</v>
-      </c>
       <c r="AS29" s="13">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AT29" s="13">
-        <v>1460</v>
+        <v>1620</v>
       </c>
       <c r="AU29" s="13">
-        <v>1675</v>
+        <v>1589</v>
       </c>
       <c r="AV29" s="13">
-        <v>1620</v>
+        <v>1522</v>
       </c>
       <c r="AW29" s="13">
-        <v>1589</v>
+        <v>1730</v>
       </c>
       <c r="AX29" s="13">
-        <v>1522</v>
+        <v>1700</v>
       </c>
       <c r="AY29" s="13">
-        <v>1730</v>
+        <v>1576</v>
       </c>
       <c r="AZ29" s="13">
-        <v>1700</v>
+        <v>1807</v>
       </c>
       <c r="BA29" s="13">
-        <v>1576</v>
+        <v>1704</v>
       </c>
       <c r="BB29" s="13">
-        <v>1807</v>
+        <v>1682</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>61</v>
       </c>
@@ -3801,157 +3801,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F30" s="11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G30" s="11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H30" s="11">
+        <v>9</v>
+      </c>
+      <c r="I30" s="11">
+        <v>11</v>
+      </c>
+      <c r="J30" s="11">
+        <v>3</v>
+      </c>
+      <c r="K30" s="11">
+        <v>15</v>
+      </c>
+      <c r="L30" s="11">
+        <v>21</v>
+      </c>
+      <c r="M30" s="11">
+        <v>14</v>
+      </c>
+      <c r="N30" s="11">
+        <v>19</v>
+      </c>
+      <c r="O30" s="11">
+        <v>19</v>
+      </c>
+      <c r="P30" s="11">
         <v>18</v>
       </c>
-      <c r="I30" s="11">
+      <c r="Q30" s="11">
         <v>20</v>
-      </c>
-      <c r="J30" s="11">
-        <v>9</v>
-      </c>
-      <c r="K30" s="11">
-        <v>11</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3</v>
-      </c>
-      <c r="M30" s="11">
-        <v>15</v>
-      </c>
-      <c r="N30" s="11">
-        <v>21</v>
-      </c>
-      <c r="O30" s="11">
-        <v>14</v>
-      </c>
-      <c r="P30" s="11">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>19</v>
       </c>
       <c r="R30" s="11">
         <v>18</v>
       </c>
       <c r="S30" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T30" s="11">
+        <v>19</v>
+      </c>
+      <c r="U30" s="11">
+        <v>11</v>
+      </c>
+      <c r="V30" s="11">
+        <v>12</v>
+      </c>
+      <c r="W30" s="11">
+        <v>15</v>
+      </c>
+      <c r="X30" s="11">
+        <v>19</v>
+      </c>
+      <c r="Y30" s="11">
         <v>18</v>
       </c>
-      <c r="U30" s="11">
+      <c r="Z30" s="11">
+        <v>16</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>12</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>14</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>13</v>
+      </c>
+      <c r="AD30" s="11">
+        <v>19</v>
+      </c>
+      <c r="AE30" s="11">
+        <v>14</v>
+      </c>
+      <c r="AF30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="11">
+        <v>19</v>
+      </c>
+      <c r="AH30" s="11">
         <v>15</v>
       </c>
-      <c r="V30" s="11">
+      <c r="AI30" s="11">
+        <v>10</v>
+      </c>
+      <c r="AJ30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AK30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>16</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>12</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>13</v>
+      </c>
+      <c r="AO30" s="11">
+        <v>8</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ30" s="11">
+        <v>13</v>
+      </c>
+      <c r="AR30" s="11">
+        <v>12</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>11</v>
+      </c>
+      <c r="AT30" s="11">
+        <v>10</v>
+      </c>
+      <c r="AU30" s="11">
+        <v>9</v>
+      </c>
+      <c r="AV30" s="11">
+        <v>9</v>
+      </c>
+      <c r="AW30" s="11">
+        <v>7</v>
+      </c>
+      <c r="AX30" s="11">
+        <v>16</v>
+      </c>
+      <c r="AY30" s="11">
+        <v>24</v>
+      </c>
+      <c r="AZ30" s="11">
         <v>19</v>
       </c>
-      <c r="W30" s="11">
-        <v>11</v>
-      </c>
-      <c r="X30" s="11">
-        <v>12</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="11">
-        <v>19</v>
-      </c>
-      <c r="AA30" s="11">
-        <v>18</v>
-      </c>
-      <c r="AB30" s="11">
-        <v>16</v>
-      </c>
-      <c r="AC30" s="11">
-        <v>12</v>
-      </c>
-      <c r="AD30" s="11">
-        <v>14</v>
-      </c>
-      <c r="AE30" s="11">
-        <v>13</v>
-      </c>
-      <c r="AF30" s="11">
-        <v>19</v>
-      </c>
-      <c r="AG30" s="11">
-        <v>14</v>
-      </c>
-      <c r="AH30" s="11">
-        <v>11</v>
-      </c>
-      <c r="AI30" s="11">
-        <v>19</v>
-      </c>
-      <c r="AJ30" s="11">
-        <v>15</v>
-      </c>
-      <c r="AK30" s="11">
-        <v>10</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>11</v>
-      </c>
-      <c r="AM30" s="11">
-        <v>11</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>16</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>12</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>13</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>8</v>
-      </c>
-      <c r="AR30" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS30" s="11">
-        <v>13</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>12</v>
-      </c>
-      <c r="AU30" s="11">
-        <v>11</v>
-      </c>
-      <c r="AV30" s="11">
-        <v>10</v>
-      </c>
-      <c r="AW30" s="11">
-        <v>9</v>
-      </c>
-      <c r="AX30" s="11">
-        <v>9</v>
-      </c>
-      <c r="AY30" s="11">
-        <v>7</v>
-      </c>
-      <c r="AZ30" s="11">
-        <v>16</v>
-      </c>
       <c r="BA30" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB30" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>62</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>58</v>
       </c>
@@ -4073,11 +4073,11 @@
       <c r="W32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y32" s="11" t="s">
-        <v>57</v>
+      <c r="X32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="11">
+        <v>0</v>
       </c>
       <c r="Z32" s="11">
         <v>0</v>
@@ -4097,11 +4097,11 @@
       <c r="AE32" s="11">
         <v>0</v>
       </c>
-      <c r="AF32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>0</v>
+      <c r="AF32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>57</v>
@@ -4167,7 +4167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>63</v>
       </c>
@@ -4227,11 +4227,11 @@
       <c r="V33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>57</v>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>58</v>
       </c>
@@ -4446,11 +4446,11 @@
       <c r="W35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y35" s="11" t="s">
-        <v>57</v>
+      <c r="X35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>0</v>
       </c>
       <c r="Z35" s="11">
         <v>0</v>
@@ -4470,11 +4470,11 @@
       <c r="AE35" s="11">
         <v>0</v>
       </c>
-      <c r="AF35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="11">
-        <v>0</v>
+      <c r="AF35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH35" s="11" t="s">
         <v>57</v>
@@ -4540,7 +4540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
@@ -4602,38 +4602,38 @@
       <c r="V36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>57</v>
+      <c r="W36" s="13">
+        <v>-5</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
       </c>
       <c r="Y36" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="13">
         <v>-5</v>
       </c>
-      <c r="Z36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="13">
+      <c r="AD36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="13">
         <v>-1</v>
       </c>
-      <c r="AB36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>-5</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <v>-1</v>
+      <c r="AF36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH36" s="13" t="s">
         <v>57</v>
@@ -4644,14 +4644,14 @@
       <c r="AJ36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AK36" s="13" t="s">
-        <v>57</v>
+      <c r="AK36" s="13">
+        <v>-11</v>
       </c>
       <c r="AL36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM36" s="13">
-        <v>-11</v>
+      <c r="AM36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN36" s="13" t="s">
         <v>57</v>
@@ -4699,7 +4699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
@@ -4767,11 +4767,11 @@
       <c r="X37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>57</v>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>0</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -4788,11 +4788,11 @@
       <c r="AE37" s="11">
         <v>0</v>
       </c>
-      <c r="AF37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="11">
-        <v>0</v>
+      <c r="AF37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>57</v>
@@ -4858,7 +4858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>67</v>
       </c>
@@ -4918,38 +4918,38 @@
       <c r="V38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X38" s="15" t="s">
-        <v>57</v>
+      <c r="W38" s="15">
+        <v>-5</v>
+      </c>
+      <c r="X38" s="15">
+        <v>0</v>
       </c>
       <c r="Y38" s="15">
+        <v>-1</v>
+      </c>
+      <c r="Z38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="15">
         <v>-5</v>
       </c>
-      <c r="Z38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="15">
+      <c r="AD38" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="15">
         <v>-1</v>
       </c>
-      <c r="AB38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="15">
-        <v>-5</v>
-      </c>
       <c r="AF38" s="15">
         <v>0</v>
       </c>
       <c r="AG38" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="15">
         <v>0</v>
@@ -4961,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="AK38" s="15">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AL38" s="15">
         <v>0</v>
       </c>
       <c r="AM38" s="15">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="15">
         <v>0</v>
@@ -5015,164 +5015,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17">
-        <v>1219</v>
+        <v>2424</v>
       </c>
       <c r="F39" s="17">
-        <v>1628</v>
+        <v>2186</v>
       </c>
       <c r="G39" s="17">
-        <v>2424</v>
+        <v>2326</v>
       </c>
       <c r="H39" s="17">
-        <v>2186</v>
+        <v>1115</v>
       </c>
       <c r="I39" s="17">
-        <v>2326</v>
+        <v>1783</v>
       </c>
       <c r="J39" s="17">
-        <v>1115</v>
+        <v>842</v>
       </c>
       <c r="K39" s="17">
-        <v>1783</v>
+        <v>3069</v>
       </c>
       <c r="L39" s="17">
-        <v>842</v>
+        <v>2373</v>
       </c>
       <c r="M39" s="17">
-        <v>3069</v>
+        <v>2127</v>
       </c>
       <c r="N39" s="17">
-        <v>2373</v>
+        <v>2149</v>
       </c>
       <c r="O39" s="17">
-        <v>2127</v>
+        <v>2148</v>
       </c>
       <c r="P39" s="17">
-        <v>2149</v>
+        <v>2229</v>
       </c>
       <c r="Q39" s="17">
-        <v>2148</v>
+        <v>2199</v>
       </c>
       <c r="R39" s="17">
-        <v>2229</v>
+        <v>2242</v>
       </c>
       <c r="S39" s="17">
-        <v>2199</v>
+        <v>2296</v>
       </c>
       <c r="T39" s="17">
-        <v>2242</v>
+        <v>1718</v>
       </c>
       <c r="U39" s="17">
-        <v>2296</v>
+        <v>2387</v>
       </c>
       <c r="V39" s="17">
-        <v>1718</v>
+        <v>2329</v>
       </c>
       <c r="W39" s="17">
-        <v>2387</v>
+        <v>2378</v>
       </c>
       <c r="X39" s="17">
-        <v>2329</v>
+        <v>2381</v>
       </c>
       <c r="Y39" s="17">
-        <v>2378</v>
+        <v>2500</v>
       </c>
       <c r="Z39" s="17">
-        <v>2381</v>
+        <v>2543</v>
       </c>
       <c r="AA39" s="17">
-        <v>2500</v>
+        <v>1865</v>
       </c>
       <c r="AB39" s="17">
-        <v>2543</v>
+        <v>2305</v>
       </c>
       <c r="AC39" s="17">
-        <v>1865</v>
+        <v>2608</v>
       </c>
       <c r="AD39" s="17">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="AE39" s="17">
-        <v>2608</v>
+        <v>2330</v>
       </c>
       <c r="AF39" s="17">
-        <v>2291</v>
+        <v>1756</v>
       </c>
       <c r="AG39" s="17">
-        <v>2330</v>
+        <v>2238</v>
       </c>
       <c r="AH39" s="17">
-        <v>1756</v>
+        <v>2112</v>
       </c>
       <c r="AI39" s="17">
-        <v>2238</v>
+        <v>1872</v>
       </c>
       <c r="AJ39" s="17">
-        <v>2112</v>
+        <v>1827</v>
       </c>
       <c r="AK39" s="17">
+        <v>2519</v>
+      </c>
+      <c r="AL39" s="17">
+        <v>2237</v>
+      </c>
+      <c r="AM39" s="17">
+        <v>1841</v>
+      </c>
+      <c r="AN39" s="17">
+        <v>2724</v>
+      </c>
+      <c r="AO39" s="17">
+        <v>2218</v>
+      </c>
+      <c r="AP39" s="17">
+        <v>2049</v>
+      </c>
+      <c r="AQ39" s="17">
+        <v>2340</v>
+      </c>
+      <c r="AR39" s="17">
         <v>1872</v>
       </c>
-      <c r="AL39" s="17">
-        <v>1827</v>
-      </c>
-      <c r="AM39" s="17">
-        <v>2519</v>
-      </c>
-      <c r="AN39" s="17">
-        <v>2237</v>
-      </c>
-      <c r="AO39" s="17">
-        <v>1841</v>
-      </c>
-      <c r="AP39" s="17">
-        <v>2724</v>
-      </c>
-      <c r="AQ39" s="17">
-        <v>2218</v>
-      </c>
-      <c r="AR39" s="17">
-        <v>2049</v>
-      </c>
       <c r="AS39" s="17">
-        <v>2340</v>
+        <v>2214</v>
       </c>
       <c r="AT39" s="17">
-        <v>1872</v>
+        <v>2495</v>
       </c>
       <c r="AU39" s="17">
-        <v>2214</v>
+        <v>2433</v>
       </c>
       <c r="AV39" s="17">
-        <v>2495</v>
+        <v>2145</v>
       </c>
       <c r="AW39" s="17">
-        <v>2433</v>
+        <v>2319</v>
       </c>
       <c r="AX39" s="17">
-        <v>2145</v>
+        <v>2304</v>
       </c>
       <c r="AY39" s="17">
-        <v>2319</v>
+        <v>2420</v>
       </c>
       <c r="AZ39" s="17">
-        <v>2304</v>
+        <v>2651</v>
       </c>
       <c r="BA39" s="17">
-        <v>2420</v>
+        <v>2405</v>
       </c>
       <c r="BB39" s="17">
-        <v>2651</v>
+        <v>2379</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5227,7 +5227,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5282,7 +5282,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5337,7 +5337,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>68</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5549,7 +5549,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>68</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
@@ -5752,11 +5752,11 @@
       <c r="AX46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AY46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ46" s="11" t="s">
-        <v>57</v>
+      <c r="AY46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="11">
+        <v>0</v>
       </c>
       <c r="BA46" s="11">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>58</v>
       </c>
@@ -5830,11 +5830,11 @@
       <c r="W47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y47" s="13" t="s">
-        <v>57</v>
+      <c r="X47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>0</v>
       </c>
       <c r="Z47" s="13">
         <v>0</v>
@@ -5854,11 +5854,11 @@
       <c r="AE47" s="13">
         <v>0</v>
       </c>
-      <c r="AF47" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="13">
-        <v>0</v>
+      <c r="AF47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH47" s="13" t="s">
         <v>57</v>
@@ -5924,7 +5924,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>59</v>
       </c>
@@ -5933,157 +5933,157 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>91137</v>
+        <v>128488</v>
       </c>
       <c r="F48" s="11">
-        <v>83676</v>
+        <v>149549</v>
       </c>
       <c r="G48" s="11">
-        <v>128488</v>
+        <v>193392</v>
       </c>
       <c r="H48" s="11">
-        <v>149549</v>
+        <v>86899</v>
       </c>
       <c r="I48" s="11">
-        <v>193392</v>
+        <v>103116</v>
       </c>
       <c r="J48" s="11">
-        <v>86899</v>
+        <v>66841</v>
       </c>
       <c r="K48" s="11">
-        <v>103116</v>
+        <v>242580</v>
       </c>
       <c r="L48" s="11">
-        <v>66841</v>
+        <v>166996</v>
       </c>
       <c r="M48" s="11">
-        <v>242580</v>
+        <v>168885</v>
       </c>
       <c r="N48" s="11">
-        <v>166996</v>
+        <v>158407</v>
       </c>
       <c r="O48" s="11">
-        <v>168885</v>
+        <v>185245</v>
       </c>
       <c r="P48" s="11">
-        <v>158407</v>
+        <v>185456</v>
       </c>
       <c r="Q48" s="11">
-        <v>185245</v>
+        <v>175298</v>
       </c>
       <c r="R48" s="11">
-        <v>185456</v>
+        <v>194041</v>
       </c>
       <c r="S48" s="11">
-        <v>175298</v>
+        <v>237487</v>
       </c>
       <c r="T48" s="11">
-        <v>194041</v>
+        <v>131723</v>
       </c>
       <c r="U48" s="11">
-        <v>237487</v>
+        <v>227987</v>
       </c>
       <c r="V48" s="11">
-        <v>131723</v>
+        <v>230696</v>
       </c>
       <c r="W48" s="11">
-        <v>227987</v>
+        <v>287965</v>
       </c>
       <c r="X48" s="11">
-        <v>230696</v>
+        <v>367574</v>
       </c>
       <c r="Y48" s="11">
-        <v>287965</v>
+        <v>475180</v>
       </c>
       <c r="Z48" s="11">
-        <v>367574</v>
+        <v>449601</v>
       </c>
       <c r="AA48" s="11">
-        <v>475180</v>
+        <v>312822</v>
       </c>
       <c r="AB48" s="11">
-        <v>449601</v>
+        <v>198715</v>
       </c>
       <c r="AC48" s="11">
-        <v>312822</v>
+        <v>674251</v>
       </c>
       <c r="AD48" s="11">
-        <v>198715</v>
+        <v>427528</v>
       </c>
       <c r="AE48" s="11">
-        <v>674251</v>
+        <v>451253</v>
       </c>
       <c r="AF48" s="11">
-        <v>427528</v>
+        <v>291506</v>
       </c>
       <c r="AG48" s="11">
-        <v>451253</v>
+        <v>455784</v>
       </c>
       <c r="AH48" s="11">
-        <v>291506</v>
+        <v>336254</v>
       </c>
       <c r="AI48" s="11">
-        <v>455784</v>
+        <v>339235</v>
       </c>
       <c r="AJ48" s="11">
-        <v>336254</v>
+        <v>330081</v>
       </c>
       <c r="AK48" s="11">
-        <v>339235</v>
+        <v>512373</v>
       </c>
       <c r="AL48" s="11">
-        <v>330081</v>
+        <v>401695</v>
       </c>
       <c r="AM48" s="11">
-        <v>512373</v>
+        <v>337451</v>
       </c>
       <c r="AN48" s="11">
-        <v>401695</v>
+        <v>553679</v>
       </c>
       <c r="AO48" s="11">
-        <v>337451</v>
+        <v>465731</v>
       </c>
       <c r="AP48" s="11">
-        <v>553679</v>
+        <v>373403</v>
       </c>
       <c r="AQ48" s="11">
-        <v>465731</v>
+        <v>437789</v>
       </c>
       <c r="AR48" s="11">
-        <v>373403</v>
+        <v>260081</v>
       </c>
       <c r="AS48" s="11">
-        <v>437789</v>
+        <v>351058</v>
       </c>
       <c r="AT48" s="11">
-        <v>260081</v>
+        <v>642521</v>
       </c>
       <c r="AU48" s="11">
-        <v>351058</v>
+        <v>618125</v>
       </c>
       <c r="AV48" s="11">
-        <v>642521</v>
+        <v>451057</v>
       </c>
       <c r="AW48" s="11">
-        <v>618125</v>
+        <v>473949</v>
       </c>
       <c r="AX48" s="11">
-        <v>451057</v>
+        <v>471217</v>
       </c>
       <c r="AY48" s="11">
-        <v>473949</v>
+        <v>670540</v>
       </c>
       <c r="AZ48" s="11">
-        <v>471217</v>
+        <v>705745</v>
       </c>
       <c r="BA48" s="11">
-        <v>670540</v>
+        <v>576648</v>
       </c>
       <c r="BB48" s="11">
-        <v>705745</v>
+        <v>593206</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>60</v>
       </c>
@@ -6092,157 +6092,157 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>87965</v>
+        <v>325459</v>
       </c>
       <c r="F49" s="13">
-        <v>206454</v>
+        <v>263406</v>
       </c>
       <c r="G49" s="13">
-        <v>325459</v>
+        <v>257209</v>
       </c>
       <c r="H49" s="13">
-        <v>263406</v>
+        <v>122385</v>
       </c>
       <c r="I49" s="13">
-        <v>257209</v>
+        <v>233304</v>
       </c>
       <c r="J49" s="13">
-        <v>122385</v>
+        <v>94341</v>
       </c>
       <c r="K49" s="13">
-        <v>233304</v>
+        <v>489204</v>
       </c>
       <c r="L49" s="13">
-        <v>94341</v>
+        <v>387126</v>
       </c>
       <c r="M49" s="13">
-        <v>489204</v>
+        <v>336730</v>
       </c>
       <c r="N49" s="13">
-        <v>387126</v>
+        <v>349188</v>
       </c>
       <c r="O49" s="13">
-        <v>336730</v>
+        <v>320867</v>
       </c>
       <c r="P49" s="13">
-        <v>349188</v>
+        <v>344266</v>
       </c>
       <c r="Q49" s="13">
-        <v>320867</v>
+        <v>344417</v>
       </c>
       <c r="R49" s="13">
-        <v>344266</v>
+        <v>356722</v>
       </c>
       <c r="S49" s="13">
-        <v>344417</v>
+        <v>329853</v>
       </c>
       <c r="T49" s="13">
-        <v>356722</v>
+        <v>284414</v>
       </c>
       <c r="U49" s="13">
-        <v>329853</v>
+        <v>365372</v>
       </c>
       <c r="V49" s="13">
-        <v>284414</v>
+        <v>350551</v>
       </c>
       <c r="W49" s="13">
-        <v>365372</v>
+        <v>445823</v>
       </c>
       <c r="X49" s="13">
-        <v>350551</v>
+        <v>499079</v>
       </c>
       <c r="Y49" s="13">
-        <v>445823</v>
+        <v>521093</v>
       </c>
       <c r="Z49" s="13">
-        <v>499079</v>
+        <v>566884</v>
       </c>
       <c r="AA49" s="13">
-        <v>521093</v>
+        <v>427186</v>
       </c>
       <c r="AB49" s="13">
-        <v>566884</v>
+        <v>1043736</v>
       </c>
       <c r="AC49" s="13">
-        <v>427186</v>
+        <v>896744</v>
       </c>
       <c r="AD49" s="13">
-        <v>1043736</v>
+        <v>847281</v>
       </c>
       <c r="AE49" s="13">
-        <v>896744</v>
+        <v>838259</v>
       </c>
       <c r="AF49" s="13">
-        <v>847281</v>
+        <v>679098</v>
       </c>
       <c r="AG49" s="13">
-        <v>838259</v>
+        <v>782577</v>
       </c>
       <c r="AH49" s="13">
-        <v>679098</v>
+        <v>826557</v>
       </c>
       <c r="AI49" s="13">
-        <v>782577</v>
+        <v>692990</v>
       </c>
       <c r="AJ49" s="13">
-        <v>826557</v>
+        <v>679345</v>
       </c>
       <c r="AK49" s="13">
-        <v>692990</v>
+        <v>884001</v>
       </c>
       <c r="AL49" s="13">
-        <v>679345</v>
+        <v>826583</v>
       </c>
       <c r="AM49" s="13">
-        <v>884001</v>
+        <v>712590</v>
       </c>
       <c r="AN49" s="13">
-        <v>826583</v>
+        <v>1030769</v>
       </c>
       <c r="AO49" s="13">
-        <v>712590</v>
+        <v>851125</v>
       </c>
       <c r="AP49" s="13">
-        <v>1030769</v>
+        <v>824421</v>
       </c>
       <c r="AQ49" s="13">
-        <v>851125</v>
+        <v>931840</v>
       </c>
       <c r="AR49" s="13">
-        <v>824421</v>
+        <v>809499</v>
       </c>
       <c r="AS49" s="13">
-        <v>931840</v>
+        <v>931871</v>
       </c>
       <c r="AT49" s="13">
-        <v>809499</v>
+        <v>1024868</v>
       </c>
       <c r="AU49" s="13">
-        <v>931871</v>
+        <v>1121762</v>
       </c>
       <c r="AV49" s="13">
-        <v>1024868</v>
+        <v>1104724</v>
       </c>
       <c r="AW49" s="13">
-        <v>1121762</v>
+        <v>1263641</v>
       </c>
       <c r="AX49" s="13">
-        <v>1104724</v>
+        <v>1268138</v>
       </c>
       <c r="AY49" s="13">
-        <v>1263641</v>
+        <v>1190869</v>
       </c>
       <c r="AZ49" s="13">
-        <v>1268138</v>
+        <v>1359882</v>
       </c>
       <c r="BA49" s="13">
-        <v>1190869</v>
+        <v>1313129</v>
       </c>
       <c r="BB49" s="13">
-        <v>1359882</v>
+        <v>1296677</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>61</v>
       </c>
@@ -6251,157 +6251,157 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>1893</v>
+        <v>981</v>
       </c>
       <c r="F50" s="11">
-        <v>1827</v>
+        <v>2676</v>
       </c>
       <c r="G50" s="11">
-        <v>981</v>
+        <v>2680</v>
       </c>
       <c r="H50" s="11">
-        <v>2676</v>
+        <v>1112</v>
       </c>
       <c r="I50" s="11">
-        <v>2680</v>
+        <v>1198</v>
       </c>
       <c r="J50" s="11">
-        <v>1112</v>
+        <v>338</v>
       </c>
       <c r="K50" s="11">
-        <v>1198</v>
+        <v>2606</v>
       </c>
       <c r="L50" s="11">
-        <v>338</v>
+        <v>3578</v>
       </c>
       <c r="M50" s="11">
-        <v>2606</v>
+        <v>2367</v>
       </c>
       <c r="N50" s="11">
-        <v>3578</v>
+        <v>3211</v>
       </c>
       <c r="O50" s="11">
-        <v>2367</v>
+        <v>3430</v>
       </c>
       <c r="P50" s="11">
-        <v>3211</v>
+        <v>4184</v>
       </c>
       <c r="Q50" s="11">
-        <v>3430</v>
+        <v>4275</v>
       </c>
       <c r="R50" s="11">
-        <v>4184</v>
+        <v>4430</v>
       </c>
       <c r="S50" s="11">
-        <v>4275</v>
+        <v>3745</v>
       </c>
       <c r="T50" s="11">
-        <v>4430</v>
+        <v>4441</v>
       </c>
       <c r="U50" s="11">
-        <v>3745</v>
+        <v>2814</v>
       </c>
       <c r="V50" s="11">
-        <v>4441</v>
+        <v>2767</v>
       </c>
       <c r="W50" s="11">
-        <v>2814</v>
+        <v>4102</v>
       </c>
       <c r="X50" s="11">
-        <v>2767</v>
+        <v>6168</v>
       </c>
       <c r="Y50" s="11">
-        <v>4102</v>
+        <v>6542</v>
       </c>
       <c r="Z50" s="11">
-        <v>6168</v>
+        <v>6184</v>
       </c>
       <c r="AA50" s="11">
-        <v>6542</v>
+        <v>4305</v>
       </c>
       <c r="AB50" s="11">
-        <v>6184</v>
+        <v>4870</v>
       </c>
       <c r="AC50" s="11">
-        <v>4305</v>
+        <v>5905</v>
       </c>
       <c r="AD50" s="11">
-        <v>4870</v>
+        <v>7361</v>
       </c>
       <c r="AE50" s="11">
-        <v>5905</v>
+        <v>5002</v>
       </c>
       <c r="AF50" s="11">
-        <v>7361</v>
+        <v>3731</v>
       </c>
       <c r="AG50" s="11">
-        <v>5002</v>
+        <v>6360</v>
       </c>
       <c r="AH50" s="11">
-        <v>3731</v>
+        <v>5181</v>
       </c>
       <c r="AI50" s="11">
-        <v>6360</v>
+        <v>3295</v>
       </c>
       <c r="AJ50" s="11">
-        <v>5181</v>
+        <v>3642</v>
       </c>
       <c r="AK50" s="11">
-        <v>3295</v>
+        <v>3514</v>
       </c>
       <c r="AL50" s="11">
-        <v>3642</v>
+        <v>5312</v>
       </c>
       <c r="AM50" s="11">
-        <v>3514</v>
+        <v>3940</v>
       </c>
       <c r="AN50" s="11">
-        <v>5312</v>
+        <v>4417</v>
       </c>
       <c r="AO50" s="11">
-        <v>3940</v>
+        <v>2799</v>
       </c>
       <c r="AP50" s="11">
-        <v>4417</v>
+        <v>2837</v>
       </c>
       <c r="AQ50" s="11">
-        <v>2799</v>
+        <v>4250</v>
       </c>
       <c r="AR50" s="11">
-        <v>2837</v>
+        <v>4902</v>
       </c>
       <c r="AS50" s="11">
-        <v>4250</v>
+        <v>6260</v>
       </c>
       <c r="AT50" s="11">
-        <v>4902</v>
+        <v>5436</v>
       </c>
       <c r="AU50" s="11">
-        <v>6260</v>
+        <v>5384</v>
       </c>
       <c r="AV50" s="11">
-        <v>5436</v>
+        <v>5597</v>
       </c>
       <c r="AW50" s="11">
-        <v>5384</v>
+        <v>5910</v>
       </c>
       <c r="AX50" s="11">
-        <v>5597</v>
+        <v>12013</v>
       </c>
       <c r="AY50" s="11">
-        <v>5910</v>
+        <v>17643</v>
       </c>
       <c r="AZ50" s="11">
-        <v>12013</v>
+        <v>13735</v>
       </c>
       <c r="BA50" s="11">
-        <v>17643</v>
+        <v>16375</v>
       </c>
       <c r="BB50" s="11">
-        <v>13735</v>
+        <v>15121</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>70</v>
       </c>
@@ -6458,7 +6458,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -6523,11 +6523,11 @@
       <c r="W52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y52" s="11" t="s">
-        <v>57</v>
+      <c r="X52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>0</v>
       </c>
       <c r="Z52" s="11">
         <v>0</v>
@@ -6547,11 +6547,11 @@
       <c r="AE52" s="11">
         <v>0</v>
       </c>
-      <c r="AF52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="11">
-        <v>0</v>
+      <c r="AF52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH52" s="11" t="s">
         <v>57</v>
@@ -6617,7 +6617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>63</v>
       </c>
@@ -6679,11 +6679,11 @@
       <c r="V53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X53" s="15" t="s">
-        <v>57</v>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+      <c r="X53" s="15">
+        <v>0</v>
       </c>
       <c r="Y53" s="15">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>71</v>
       </c>
@@ -6833,7 +6833,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>58</v>
       </c>
@@ -6898,11 +6898,11 @@
       <c r="W55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X55" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y55" s="11" t="s">
-        <v>57</v>
+      <c r="X55" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="11">
+        <v>0</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
@@ -6922,11 +6922,11 @@
       <c r="AE55" s="11">
         <v>0</v>
       </c>
-      <c r="AF55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+      <c r="AF55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>57</v>
@@ -6992,7 +6992,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7054,56 +7054,56 @@
       <c r="V56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>57</v>
+      <c r="W56" s="13">
+        <v>-556</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
       </c>
       <c r="Y56" s="13">
-        <v>-556</v>
+        <v>-188</v>
       </c>
       <c r="Z56" s="13">
         <v>0</v>
       </c>
       <c r="AA56" s="13">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="13">
         <v>0</v>
       </c>
       <c r="AC56" s="13">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AD56" s="13">
         <v>0</v>
       </c>
       <c r="AE56" s="13">
-        <v>-3542</v>
-      </c>
-      <c r="AF56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="13">
         <v>-524</v>
       </c>
+      <c r="AF56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AH56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI56" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ56" s="13" t="s">
-        <v>57</v>
+      <c r="AI56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="13">
+        <v>0</v>
       </c>
       <c r="AK56" s="13">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AL56" s="13">
         <v>0</v>
       </c>
       <c r="AM56" s="13">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AN56" s="13">
         <v>0</v>
@@ -7117,11 +7117,11 @@
       <c r="AQ56" s="13">
         <v>0</v>
       </c>
-      <c r="AR56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="13">
-        <v>0</v>
+      <c r="AR56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT56" s="13" t="s">
         <v>57</v>
@@ -7151,7 +7151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7219,11 +7219,11 @@
       <c r="X57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
+      <c r="Y57" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>0</v>
       </c>
       <c r="AA57" s="11">
         <v>0</v>
@@ -7240,11 +7240,11 @@
       <c r="AE57" s="11">
         <v>0</v>
       </c>
-      <c r="AF57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>0</v>
+      <c r="AF57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH57" s="11" t="s">
         <v>57</v>
@@ -7310,7 +7310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>67</v>
       </c>
@@ -7372,38 +7372,38 @@
       <c r="V58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W58" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X58" s="15" t="s">
-        <v>57</v>
+      <c r="W58" s="15">
+        <v>-556</v>
+      </c>
+      <c r="X58" s="15">
+        <v>0</v>
       </c>
       <c r="Y58" s="15">
-        <v>-556</v>
+        <v>-188</v>
       </c>
       <c r="Z58" s="15">
         <v>0</v>
       </c>
       <c r="AA58" s="15">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="15">
         <v>0</v>
       </c>
       <c r="AC58" s="15">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AD58" s="15">
         <v>0</v>
       </c>
       <c r="AE58" s="15">
-        <v>-3542</v>
+        <v>-524</v>
       </c>
       <c r="AF58" s="15">
         <v>0</v>
       </c>
       <c r="AG58" s="15">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="15">
         <v>0</v>
@@ -7415,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="AK58" s="15">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AL58" s="15">
         <v>0</v>
       </c>
       <c r="AM58" s="15">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="15">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>72</v>
       </c>
@@ -7526,7 +7526,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>73</v>
       </c>
@@ -7588,74 +7588,74 @@
       <c r="V60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>57</v>
+      <c r="W60" s="11">
+        <v>-8479</v>
+      </c>
+      <c r="X60" s="11">
+        <v>-8791</v>
       </c>
       <c r="Y60" s="11">
-        <v>-8479</v>
+        <v>-15677</v>
       </c>
       <c r="Z60" s="11">
-        <v>-8791</v>
+        <v>-12200</v>
       </c>
       <c r="AA60" s="11">
-        <v>-15677</v>
+        <v>-10759</v>
       </c>
       <c r="AB60" s="11">
-        <v>-12200</v>
+        <v>-11848</v>
       </c>
       <c r="AC60" s="11">
-        <v>-10759</v>
+        <v>-12664</v>
       </c>
       <c r="AD60" s="11">
-        <v>-11848</v>
+        <v>-12159</v>
       </c>
       <c r="AE60" s="11">
-        <v>-12664</v>
+        <v>-16690</v>
       </c>
       <c r="AF60" s="11">
-        <v>-12159</v>
+        <v>-8015</v>
       </c>
       <c r="AG60" s="11">
-        <v>-16690</v>
+        <v>-10431</v>
       </c>
       <c r="AH60" s="11">
-        <v>-8015</v>
+        <v>-9973</v>
       </c>
       <c r="AI60" s="11">
-        <v>-10431</v>
+        <v>-10506</v>
       </c>
       <c r="AJ60" s="11">
-        <v>-9973</v>
+        <v>-9808</v>
       </c>
       <c r="AK60" s="11">
-        <v>-10506</v>
+        <v>-12001</v>
       </c>
       <c r="AL60" s="11">
-        <v>-9808</v>
+        <v>-6868</v>
       </c>
       <c r="AM60" s="11">
-        <v>-12001</v>
+        <v>-16758</v>
       </c>
       <c r="AN60" s="11">
-        <v>-6868</v>
+        <v>-17320</v>
       </c>
       <c r="AO60" s="11">
-        <v>-16758</v>
+        <v>-12115</v>
       </c>
       <c r="AP60" s="11">
-        <v>-17320</v>
+        <v>-10594</v>
       </c>
       <c r="AQ60" s="11">
-        <v>-12115</v>
+        <v>-16008</v>
       </c>
       <c r="AR60" s="11">
-        <v>-10594</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="11">
-        <v>-16008</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="11">
         <v>0</v>
@@ -7685,164 +7685,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>180995</v>
+        <v>454928</v>
       </c>
       <c r="F61" s="15">
-        <v>291957</v>
+        <v>415631</v>
       </c>
       <c r="G61" s="15">
-        <v>454928</v>
+        <v>453281</v>
       </c>
       <c r="H61" s="15">
-        <v>415631</v>
+        <v>210396</v>
       </c>
       <c r="I61" s="15">
-        <v>453281</v>
+        <v>337618</v>
       </c>
       <c r="J61" s="15">
-        <v>210396</v>
+        <v>161520</v>
       </c>
       <c r="K61" s="15">
-        <v>337618</v>
+        <v>734390</v>
       </c>
       <c r="L61" s="15">
-        <v>161520</v>
+        <v>557700</v>
       </c>
       <c r="M61" s="15">
-        <v>734390</v>
+        <v>507982</v>
       </c>
       <c r="N61" s="15">
-        <v>557700</v>
+        <v>510806</v>
       </c>
       <c r="O61" s="15">
-        <v>507982</v>
+        <v>509542</v>
       </c>
       <c r="P61" s="15">
-        <v>510806</v>
+        <v>533906</v>
       </c>
       <c r="Q61" s="15">
-        <v>509542</v>
+        <v>523990</v>
       </c>
       <c r="R61" s="15">
-        <v>533906</v>
+        <v>555193</v>
       </c>
       <c r="S61" s="15">
-        <v>523990</v>
+        <v>571085</v>
       </c>
       <c r="T61" s="15">
-        <v>555193</v>
+        <v>420578</v>
       </c>
       <c r="U61" s="15">
-        <v>571085</v>
+        <v>596173</v>
       </c>
       <c r="V61" s="15">
-        <v>420578</v>
+        <v>584014</v>
       </c>
       <c r="W61" s="15">
-        <v>596173</v>
+        <v>728855</v>
       </c>
       <c r="X61" s="15">
-        <v>584014</v>
+        <v>864030</v>
       </c>
       <c r="Y61" s="15">
-        <v>728855</v>
+        <v>986950</v>
       </c>
       <c r="Z61" s="15">
-        <v>864030</v>
+        <v>1010469</v>
       </c>
       <c r="AA61" s="15">
-        <v>986950</v>
+        <v>733554</v>
       </c>
       <c r="AB61" s="15">
-        <v>1010469</v>
+        <v>1235473</v>
       </c>
       <c r="AC61" s="15">
-        <v>733554</v>
+        <v>1560694</v>
       </c>
       <c r="AD61" s="15">
-        <v>1235473</v>
+        <v>1270011</v>
       </c>
       <c r="AE61" s="15">
-        <v>1560694</v>
+        <v>1277300</v>
       </c>
       <c r="AF61" s="15">
-        <v>1270011</v>
+        <v>966320</v>
       </c>
       <c r="AG61" s="15">
-        <v>1277300</v>
+        <v>1234290</v>
       </c>
       <c r="AH61" s="15">
-        <v>966320</v>
+        <v>1158019</v>
       </c>
       <c r="AI61" s="15">
-        <v>1234290</v>
+        <v>1025014</v>
       </c>
       <c r="AJ61" s="15">
-        <v>1158019</v>
+        <v>1003260</v>
       </c>
       <c r="AK61" s="15">
-        <v>1025014</v>
+        <v>1380360</v>
       </c>
       <c r="AL61" s="15">
-        <v>1003260</v>
+        <v>1226722</v>
       </c>
       <c r="AM61" s="15">
-        <v>1380360</v>
+        <v>1037223</v>
       </c>
       <c r="AN61" s="15">
-        <v>1226722</v>
+        <v>1571545</v>
       </c>
       <c r="AO61" s="15">
-        <v>1037223</v>
+        <v>1307540</v>
       </c>
       <c r="AP61" s="15">
-        <v>1571545</v>
+        <v>1190067</v>
       </c>
       <c r="AQ61" s="15">
-        <v>1307540</v>
+        <v>1357871</v>
       </c>
       <c r="AR61" s="15">
-        <v>1190067</v>
+        <v>1074482</v>
       </c>
       <c r="AS61" s="15">
-        <v>1357871</v>
+        <v>1289189</v>
       </c>
       <c r="AT61" s="15">
-        <v>1074482</v>
+        <v>1672825</v>
       </c>
       <c r="AU61" s="15">
-        <v>1289189</v>
+        <v>1745271</v>
       </c>
       <c r="AV61" s="15">
-        <v>1672825</v>
+        <v>1561378</v>
       </c>
       <c r="AW61" s="15">
-        <v>1745271</v>
+        <v>1743500</v>
       </c>
       <c r="AX61" s="15">
-        <v>1561378</v>
+        <v>1751368</v>
       </c>
       <c r="AY61" s="15">
-        <v>1743500</v>
+        <v>1879052</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1751368</v>
+        <v>2079362</v>
       </c>
       <c r="BA61" s="15">
-        <v>1879052</v>
+        <v>1906152</v>
       </c>
       <c r="BB61" s="15">
-        <v>2079362</v>
+        <v>1905004</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7897,7 +7897,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7952,7 +7952,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8007,7 +8007,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>74</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8219,7 +8219,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>75</v>
       </c>
@@ -8276,7 +8276,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>59</v>
       </c>
@@ -8285,157 +8285,157 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>139780675</v>
+        <v>184609195</v>
       </c>
       <c r="F68" s="11">
-        <v>173962578</v>
+        <v>192717784</v>
       </c>
       <c r="G68" s="11">
-        <v>184609195</v>
+        <v>205517535</v>
       </c>
       <c r="H68" s="11">
-        <v>192717784</v>
+        <v>189322440</v>
       </c>
       <c r="I68" s="11">
-        <v>205517535</v>
+        <v>188511883</v>
       </c>
       <c r="J68" s="11">
-        <v>189322440</v>
+        <v>189889205</v>
       </c>
       <c r="K68" s="11">
-        <v>188511883</v>
+        <v>238525074</v>
       </c>
       <c r="L68" s="11">
-        <v>189889205</v>
+        <v>242374456</v>
       </c>
       <c r="M68" s="11">
-        <v>238525074</v>
+        <v>249460857</v>
       </c>
       <c r="N68" s="11">
-        <v>242374456</v>
+        <v>247510938</v>
       </c>
       <c r="O68" s="11">
-        <v>249460857</v>
+        <v>243743421</v>
       </c>
       <c r="P68" s="11">
-        <v>247510938</v>
+        <v>246945406</v>
       </c>
       <c r="Q68" s="11">
-        <v>243743421</v>
+        <v>241125172</v>
       </c>
       <c r="R68" s="11">
-        <v>246945406</v>
+        <v>266906465</v>
       </c>
       <c r="S68" s="11">
-        <v>241125172</v>
+        <v>267440315</v>
       </c>
       <c r="T68" s="11">
-        <v>266906465</v>
+        <v>267729675</v>
       </c>
       <c r="U68" s="11">
-        <v>267440315</v>
+        <v>265719114</v>
       </c>
       <c r="V68" s="11">
-        <v>267729675</v>
+        <v>272047170</v>
       </c>
       <c r="W68" s="11">
-        <v>265719114</v>
+        <v>336407710</v>
       </c>
       <c r="X68" s="11">
-        <v>272047170</v>
+        <v>404371837</v>
       </c>
       <c r="Y68" s="11">
-        <v>336407710</v>
+        <v>447860509</v>
       </c>
       <c r="Z68" s="11">
-        <v>404371837</v>
+        <v>450953862</v>
       </c>
       <c r="AA68" s="11">
-        <v>447860509</v>
+        <v>444981508</v>
       </c>
       <c r="AB68" s="11">
-        <v>450953862</v>
+        <v>435778509</v>
       </c>
       <c r="AC68" s="11">
-        <v>444981508</v>
+        <v>602009821</v>
       </c>
       <c r="AD68" s="11">
-        <v>435778509</v>
+        <v>567766268</v>
       </c>
       <c r="AE68" s="11">
-        <v>602009821</v>
+        <v>566900754</v>
       </c>
       <c r="AF68" s="11">
-        <v>567766268</v>
+        <v>566031068</v>
       </c>
       <c r="AG68" s="11">
-        <v>566900754</v>
+        <v>561310345</v>
       </c>
       <c r="AH68" s="11">
-        <v>566031068</v>
+        <v>570889643</v>
       </c>
       <c r="AI68" s="11">
-        <v>561310345</v>
+        <v>570142857</v>
       </c>
       <c r="AJ68" s="11">
-        <v>570889643</v>
+        <v>571074394</v>
       </c>
       <c r="AK68" s="11">
-        <v>570142857</v>
+        <v>569303333</v>
       </c>
       <c r="AL68" s="11">
-        <v>571074394</v>
+        <v>568168317</v>
       </c>
       <c r="AM68" s="11">
-        <v>569303333</v>
+        <v>636700000</v>
       </c>
       <c r="AN68" s="11">
-        <v>568168317</v>
+        <v>659927294</v>
       </c>
       <c r="AO68" s="11">
-        <v>636700000</v>
+        <v>682890029</v>
       </c>
       <c r="AP68" s="11">
-        <v>659927294</v>
+        <v>682638026</v>
       </c>
       <c r="AQ68" s="11">
-        <v>682890029</v>
+        <v>673521538</v>
       </c>
       <c r="AR68" s="11">
-        <v>682638026</v>
+        <v>650202500</v>
       </c>
       <c r="AS68" s="11">
-        <v>673521538</v>
+        <v>664882576</v>
       </c>
       <c r="AT68" s="11">
-        <v>650202500</v>
+        <v>742798844</v>
       </c>
       <c r="AU68" s="11">
-        <v>664882576</v>
+        <v>740269461</v>
       </c>
       <c r="AV68" s="11">
-        <v>742798844</v>
+        <v>734620521</v>
       </c>
       <c r="AW68" s="11">
-        <v>740269461</v>
+        <v>814345361</v>
       </c>
       <c r="AX68" s="11">
-        <v>734620521</v>
+        <v>801389456</v>
       </c>
       <c r="AY68" s="11">
-        <v>814345361</v>
+        <v>817731707</v>
       </c>
       <c r="AZ68" s="11">
-        <v>801389456</v>
+        <v>855448485</v>
       </c>
       <c r="BA68" s="11">
-        <v>817731707</v>
+        <v>849260677</v>
       </c>
       <c r="BB68" s="11">
-        <v>855448485</v>
+        <v>878823704</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>60</v>
       </c>
@@ -8444,157 +8444,157 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
-        <v>158781588</v>
+        <v>189000581</v>
       </c>
       <c r="F69" s="13">
-        <v>181897797</v>
+        <v>189228448</v>
       </c>
       <c r="G69" s="13">
-        <v>189000581</v>
+        <v>188431502</v>
       </c>
       <c r="H69" s="13">
-        <v>189228448</v>
+        <v>189157651</v>
       </c>
       <c r="I69" s="13">
-        <v>188431502</v>
+        <v>190452245</v>
       </c>
       <c r="J69" s="13">
-        <v>189157651</v>
+        <v>193718686</v>
       </c>
       <c r="K69" s="13">
-        <v>190452245</v>
+        <v>240159057</v>
       </c>
       <c r="L69" s="13">
-        <v>193718686</v>
+        <v>232787733</v>
       </c>
       <c r="M69" s="13">
-        <v>240159057</v>
+        <v>234491643</v>
       </c>
       <c r="N69" s="13">
-        <v>232787733</v>
+        <v>234354362</v>
       </c>
       <c r="O69" s="13">
-        <v>234491643</v>
+        <v>234380570</v>
       </c>
       <c r="P69" s="13">
-        <v>234354362</v>
+        <v>235798630</v>
       </c>
       <c r="Q69" s="13">
-        <v>234380570</v>
+        <v>237201791</v>
       </c>
       <c r="R69" s="13">
-        <v>235798630</v>
+        <v>238291249</v>
       </c>
       <c r="S69" s="13">
-        <v>237201791</v>
+        <v>236793252</v>
       </c>
       <c r="T69" s="13">
-        <v>238291249</v>
+        <v>235637117</v>
       </c>
       <c r="U69" s="13">
-        <v>236793252</v>
+        <v>240693017</v>
       </c>
       <c r="V69" s="13">
-        <v>235637117</v>
+        <v>238632403</v>
       </c>
       <c r="W69" s="13">
-        <v>240693017</v>
+        <v>294856481</v>
       </c>
       <c r="X69" s="13">
-        <v>238632403</v>
+        <v>343481762</v>
       </c>
       <c r="Y69" s="13">
-        <v>294856481</v>
+        <v>366450774</v>
       </c>
       <c r="Z69" s="13">
-        <v>343481762</v>
+        <v>370512418</v>
       </c>
       <c r="AA69" s="13">
-        <v>366450774</v>
+        <v>371466087</v>
       </c>
       <c r="AB69" s="13">
-        <v>370512418</v>
+        <v>568793460</v>
       </c>
       <c r="AC69" s="13">
-        <v>371466087</v>
+        <v>605908108</v>
       </c>
       <c r="AD69" s="13">
-        <v>568793460</v>
+        <v>557788677</v>
       </c>
       <c r="AE69" s="13">
-        <v>605908108</v>
+        <v>551123603</v>
       </c>
       <c r="AF69" s="13">
-        <v>557788677</v>
+        <v>552112195</v>
       </c>
       <c r="AG69" s="13">
-        <v>551123603</v>
+        <v>556202559</v>
       </c>
       <c r="AH69" s="13">
-        <v>552112195</v>
+        <v>548114721</v>
       </c>
       <c r="AI69" s="13">
-        <v>556202559</v>
+        <v>546953433</v>
       </c>
       <c r="AJ69" s="13">
-        <v>548114721</v>
+        <v>548743942</v>
       </c>
       <c r="AK69" s="13">
-        <v>546953433</v>
+        <v>546016677</v>
       </c>
       <c r="AL69" s="13">
-        <v>548743942</v>
+        <v>545959709</v>
       </c>
       <c r="AM69" s="13">
-        <v>546016677</v>
+        <v>548568129</v>
       </c>
       <c r="AN69" s="13">
-        <v>545959709</v>
+        <v>550624466</v>
       </c>
       <c r="AO69" s="13">
-        <v>548568129</v>
+        <v>557018979</v>
       </c>
       <c r="AP69" s="13">
-        <v>550624466</v>
+        <v>551821285</v>
       </c>
       <c r="AQ69" s="13">
-        <v>557018979</v>
+        <v>555658915</v>
       </c>
       <c r="AR69" s="13">
-        <v>551821285</v>
+        <v>554451370</v>
       </c>
       <c r="AS69" s="13">
-        <v>555658915</v>
+        <v>556340896</v>
       </c>
       <c r="AT69" s="13">
-        <v>554451370</v>
+        <v>632634568</v>
       </c>
       <c r="AU69" s="13">
-        <v>556340896</v>
+        <v>705954688</v>
       </c>
       <c r="AV69" s="13">
-        <v>632634568</v>
+        <v>725837057</v>
       </c>
       <c r="AW69" s="13">
-        <v>705954688</v>
+        <v>730428324</v>
       </c>
       <c r="AX69" s="13">
-        <v>725837057</v>
+        <v>745963529</v>
       </c>
       <c r="AY69" s="13">
-        <v>730428324</v>
+        <v>755627538</v>
       </c>
       <c r="AZ69" s="13">
-        <v>745963529</v>
+        <v>752563365</v>
       </c>
       <c r="BA69" s="13">
-        <v>755627538</v>
+        <v>770615610</v>
       </c>
       <c r="BB69" s="13">
-        <v>752563365</v>
+        <v>770913793</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
@@ -8603,157 +8603,157 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>145615385</v>
+        <v>163500000</v>
       </c>
       <c r="F70" s="11">
-        <v>152250000</v>
+        <v>148666667</v>
       </c>
       <c r="G70" s="11">
-        <v>163500000</v>
+        <v>134000000</v>
       </c>
       <c r="H70" s="11">
-        <v>148666667</v>
+        <v>123555556</v>
       </c>
       <c r="I70" s="11">
-        <v>134000000</v>
+        <v>108909091</v>
       </c>
       <c r="J70" s="11">
-        <v>123555556</v>
+        <v>112666667</v>
       </c>
       <c r="K70" s="11">
-        <v>108909091</v>
+        <v>173733333</v>
       </c>
       <c r="L70" s="11">
-        <v>112666667</v>
+        <v>170380952</v>
       </c>
       <c r="M70" s="11">
-        <v>173733333</v>
+        <v>169071429</v>
       </c>
       <c r="N70" s="11">
-        <v>170380952</v>
+        <v>169000000</v>
       </c>
       <c r="O70" s="11">
-        <v>169071429</v>
+        <v>180526316</v>
       </c>
       <c r="P70" s="11">
-        <v>169000000</v>
+        <v>232444444</v>
       </c>
       <c r="Q70" s="11">
-        <v>180526316</v>
+        <v>213750000</v>
       </c>
       <c r="R70" s="11">
-        <v>232444444</v>
+        <v>246111111</v>
       </c>
       <c r="S70" s="11">
-        <v>213750000</v>
+        <v>249666667</v>
       </c>
       <c r="T70" s="11">
-        <v>246111111</v>
+        <v>233736842</v>
       </c>
       <c r="U70" s="11">
-        <v>249666667</v>
+        <v>255818182</v>
       </c>
       <c r="V70" s="11">
-        <v>233736842</v>
+        <v>230583333</v>
       </c>
       <c r="W70" s="11">
-        <v>255818182</v>
+        <v>273466667</v>
       </c>
       <c r="X70" s="11">
-        <v>230583333</v>
+        <v>324631579</v>
       </c>
       <c r="Y70" s="11">
-        <v>273466667</v>
+        <v>363444444</v>
       </c>
       <c r="Z70" s="11">
-        <v>324631579</v>
+        <v>386500000</v>
       </c>
       <c r="AA70" s="11">
-        <v>363444444</v>
+        <v>358750000</v>
       </c>
       <c r="AB70" s="11">
-        <v>386500000</v>
+        <v>347857143</v>
       </c>
       <c r="AC70" s="11">
-        <v>358750000</v>
+        <v>454230769</v>
       </c>
       <c r="AD70" s="11">
-        <v>347857143</v>
+        <v>387421053</v>
       </c>
       <c r="AE70" s="11">
-        <v>454230769</v>
+        <v>357285714</v>
       </c>
       <c r="AF70" s="11">
-        <v>387421053</v>
+        <v>339181818</v>
       </c>
       <c r="AG70" s="11">
-        <v>357285714</v>
+        <v>334736842</v>
       </c>
       <c r="AH70" s="11">
-        <v>339181818</v>
+        <v>345400000</v>
       </c>
       <c r="AI70" s="11">
-        <v>334736842</v>
+        <v>329500000</v>
       </c>
       <c r="AJ70" s="11">
-        <v>345400000</v>
+        <v>331090909</v>
       </c>
       <c r="AK70" s="11">
-        <v>329500000</v>
+        <v>319454545</v>
       </c>
       <c r="AL70" s="11">
-        <v>331090909</v>
+        <v>332000000</v>
       </c>
       <c r="AM70" s="11">
-        <v>319454545</v>
+        <v>328333333</v>
       </c>
       <c r="AN70" s="11">
-        <v>332000000</v>
+        <v>339769231</v>
       </c>
       <c r="AO70" s="11">
-        <v>328333333</v>
+        <v>349875000</v>
       </c>
       <c r="AP70" s="11">
-        <v>339769231</v>
+        <v>354625000</v>
       </c>
       <c r="AQ70" s="11">
-        <v>349875000</v>
+        <v>326923077</v>
       </c>
       <c r="AR70" s="11">
-        <v>354625000</v>
+        <v>408500000</v>
       </c>
       <c r="AS70" s="11">
-        <v>326923077</v>
+        <v>569090909</v>
       </c>
       <c r="AT70" s="11">
-        <v>408500000</v>
+        <v>543600000</v>
       </c>
       <c r="AU70" s="11">
-        <v>569090909</v>
+        <v>598222222</v>
       </c>
       <c r="AV70" s="11">
-        <v>543600000</v>
+        <v>621888889</v>
       </c>
       <c r="AW70" s="11">
-        <v>598222222</v>
+        <v>844285714</v>
       </c>
       <c r="AX70" s="11">
-        <v>621888889</v>
+        <v>750812500</v>
       </c>
       <c r="AY70" s="11">
-        <v>844285714</v>
+        <v>735125000</v>
       </c>
       <c r="AZ70" s="11">
-        <v>750812500</v>
+        <v>722894737</v>
       </c>
       <c r="BA70" s="11">
-        <v>735125000</v>
+        <v>744318182</v>
       </c>
       <c r="BB70" s="11">
-        <v>722894737</v>
+        <v>687318182</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>77</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>58</v>
       </c>
@@ -8875,11 +8875,11 @@
       <c r="W72" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="X72" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y72" s="11" t="s">
-        <v>57</v>
+      <c r="X72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
         <v>0</v>
@@ -8899,11 +8899,11 @@
       <c r="AE72" s="11">
         <v>0</v>
       </c>
-      <c r="AF72" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG72" s="11">
-        <v>0</v>
+      <c r="AF72" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH72" s="11" t="s">
         <v>57</v>

--- a/database/industries/lastic/petayer/product/monthly.xlsx
+++ b/database/industries/lastic/petayer/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="78">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3379,8 +3379,8 @@
       <c r="AV11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW11" s="13" t="s">
-        <v>57</v>
+      <c r="AW11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX11" s="13" t="n">
         <v>0</v>
@@ -3457,8 +3457,8 @@
       <c r="U12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="16" t="s">
-        <v>57</v>
+      <c r="V12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W12" s="16" t="n">
         <v>0</v>
@@ -3481,8 +3481,8 @@
       <c r="AC12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD12" s="16" t="n">
-        <v>0</v>
+      <c r="AD12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE12" s="16" t="s">
         <v>57</v>
@@ -3566,154 +3566,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
+        <v>633</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>550</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>718</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>664</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>724</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>483</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>570</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>772</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <v>649</v>
+      </c>
+      <c r="N13" s="13" t="n">
+        <v>735</v>
+      </c>
+      <c r="O13" s="13" t="n">
+        <v>727</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <v>828</v>
+      </c>
+      <c r="Q13" s="13" t="n">
+        <v>776</v>
+      </c>
+      <c r="R13" s="13" t="n">
+        <v>655</v>
+      </c>
+      <c r="S13" s="13" t="n">
+        <v>905</v>
+      </c>
+      <c r="T13" s="13" t="n">
+        <v>838</v>
+      </c>
+      <c r="U13" s="13" t="n">
+        <v>938</v>
+      </c>
+      <c r="V13" s="13" t="n">
+        <v>922</v>
+      </c>
+      <c r="W13" s="13" t="n">
+        <v>822</v>
+      </c>
+      <c r="X13" s="13" t="n">
+        <v>809</v>
+      </c>
+      <c r="Y13" s="13" t="n">
+        <v>770</v>
+      </c>
+      <c r="Z13" s="13" t="n">
+        <v>744</v>
+      </c>
+      <c r="AA13" s="13" t="n">
+        <v>884</v>
+      </c>
+      <c r="AB13" s="13" t="n">
+        <v>861</v>
+      </c>
+      <c r="AC13" s="13" t="n">
+        <v>657</v>
+      </c>
+      <c r="AD13" s="13" t="n">
+        <v>636</v>
+      </c>
+      <c r="AE13" s="13" t="n">
+        <v>741</v>
+      </c>
+      <c r="AF13" s="13" t="n">
+        <v>757</v>
+      </c>
+      <c r="AG13" s="13" t="n">
+        <v>772</v>
+      </c>
+      <c r="AH13" s="13" t="n">
+        <v>563</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>723</v>
+      </c>
+      <c r="AJ13" s="13" t="n">
+        <v>679</v>
+      </c>
+      <c r="AK13" s="13" t="n">
+        <v>760</v>
+      </c>
+      <c r="AL13" s="13" t="n">
+        <v>678</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>760</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>675</v>
+      </c>
+      <c r="AO13" s="13" t="n">
         <v>667</v>
       </c>
-      <c r="F13" s="13" t="n">
-        <v>633</v>
-      </c>
-      <c r="G13" s="13" t="n">
-        <v>550</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>718</v>
-      </c>
-      <c r="I13" s="13" t="n">
-        <v>664</v>
-      </c>
-      <c r="J13" s="13" t="n">
-        <v>724</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <v>483</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>570</v>
-      </c>
-      <c r="M13" s="13" t="n">
-        <v>772</v>
-      </c>
-      <c r="N13" s="13" t="n">
-        <v>649</v>
-      </c>
-      <c r="O13" s="13" t="n">
-        <v>735</v>
-      </c>
-      <c r="P13" s="13" t="n">
-        <v>727</v>
-      </c>
-      <c r="Q13" s="13" t="n">
-        <v>828</v>
-      </c>
-      <c r="R13" s="13" t="n">
-        <v>776</v>
-      </c>
-      <c r="S13" s="13" t="n">
-        <v>655</v>
-      </c>
-      <c r="T13" s="13" t="n">
-        <v>905</v>
-      </c>
-      <c r="U13" s="13" t="n">
-        <v>838</v>
-      </c>
-      <c r="V13" s="13" t="n">
-        <v>938</v>
-      </c>
-      <c r="W13" s="13" t="n">
-        <v>922</v>
-      </c>
-      <c r="X13" s="13" t="n">
-        <v>822</v>
-      </c>
-      <c r="Y13" s="13" t="n">
-        <v>809</v>
-      </c>
-      <c r="Z13" s="13" t="n">
-        <v>770</v>
-      </c>
-      <c r="AA13" s="13" t="n">
-        <v>744</v>
-      </c>
-      <c r="AB13" s="13" t="n">
-        <v>884</v>
-      </c>
-      <c r="AC13" s="13" t="n">
-        <v>861</v>
-      </c>
-      <c r="AD13" s="13" t="n">
-        <v>657</v>
-      </c>
-      <c r="AE13" s="13" t="n">
-        <v>636</v>
-      </c>
-      <c r="AF13" s="13" t="n">
-        <v>741</v>
-      </c>
-      <c r="AG13" s="13" t="n">
-        <v>757</v>
-      </c>
-      <c r="AH13" s="13" t="n">
-        <v>772</v>
-      </c>
-      <c r="AI13" s="13" t="n">
-        <v>563</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>723</v>
-      </c>
-      <c r="AK13" s="13" t="n">
-        <v>679</v>
-      </c>
-      <c r="AL13" s="13" t="n">
-        <v>760</v>
-      </c>
-      <c r="AM13" s="13" t="n">
-        <v>678</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>760</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>675</v>
-      </c>
       <c r="AP13" s="13" t="n">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>615</v>
+        <v>693</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>712</v>
+        <v>673</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>673</v>
+        <v>477</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>297</v>
+        <v>654</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>654</v>
+        <v>717</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>687</v>
+        <v>627</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>648</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,154 +3725,154 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>1319</v>
+        <v>1281</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>1281</v>
+        <v>1132</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>1132</v>
+        <v>1408</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>1408</v>
+        <v>1282</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>1293</v>
+        <v>1067</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>1067</v>
+        <v>1283</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1283</v>
+        <v>1453</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1453</v>
+        <v>1486</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>1486</v>
+        <v>1448</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>1448</v>
+        <v>1525</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>1525</v>
+        <v>1473</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>1473</v>
+        <v>1306</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>1306</v>
+        <v>1181</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>1181</v>
+        <v>1573</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1573</v>
+        <v>1475</v>
       </c>
       <c r="U14" s="16" t="n">
+        <v>1479</v>
+      </c>
+      <c r="V14" s="16" t="n">
+        <v>1431</v>
+      </c>
+      <c r="W14" s="16" t="n">
+        <v>1432</v>
+      </c>
+      <c r="X14" s="16" t="n">
+        <v>1532</v>
+      </c>
+      <c r="Y14" s="16" t="n">
+        <v>1494</v>
+      </c>
+      <c r="Z14" s="16" t="n">
+        <v>1517</v>
+      </c>
+      <c r="AA14" s="16" t="n">
+        <v>1506</v>
+      </c>
+      <c r="AB14" s="16" t="n">
+        <v>1540</v>
+      </c>
+      <c r="AC14" s="16" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AD14" s="16" t="n">
+        <v>1274</v>
+      </c>
+      <c r="AE14" s="16" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AF14" s="16" t="n">
+        <v>1499</v>
+      </c>
+      <c r="AG14" s="16" t="n">
+        <v>1472</v>
+      </c>
+      <c r="AH14" s="16" t="n">
+        <v>1056</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>1575</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>1637</v>
+      </c>
+      <c r="AL14" s="16" t="n">
+        <v>1641</v>
+      </c>
+      <c r="AM14" s="16" t="n">
+        <v>1637</v>
+      </c>
+      <c r="AN14" s="16" t="n">
+        <v>1544</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>1513</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>1371</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AR14" s="16" t="n">
+        <v>1732</v>
+      </c>
+      <c r="AS14" s="16" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AT14" s="16" t="n">
+        <v>1541</v>
+      </c>
+      <c r="AU14" s="16" t="n">
+        <v>1749</v>
+      </c>
+      <c r="AV14" s="16" t="n">
+        <v>1621</v>
+      </c>
+      <c r="AW14" s="16" t="n">
+        <v>1659</v>
+      </c>
+      <c r="AX14" s="16" t="n">
+        <v>1734</v>
+      </c>
+      <c r="AY14" s="16" t="n">
+        <v>1590</v>
+      </c>
+      <c r="AZ14" s="16" t="n">
+        <v>1666</v>
+      </c>
+      <c r="BA14" s="16" t="n">
         <v>1475</v>
       </c>
-      <c r="V14" s="16" t="n">
-        <v>1479</v>
-      </c>
-      <c r="W14" s="16" t="n">
-        <v>1431</v>
-      </c>
-      <c r="X14" s="16" t="n">
-        <v>1432</v>
-      </c>
-      <c r="Y14" s="16" t="n">
-        <v>1532</v>
-      </c>
-      <c r="Z14" s="16" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AA14" s="16" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AB14" s="16" t="n">
-        <v>1506</v>
-      </c>
-      <c r="AC14" s="16" t="n">
-        <v>1540</v>
-      </c>
-      <c r="AD14" s="16" t="n">
-        <v>1435</v>
-      </c>
-      <c r="AE14" s="16" t="n">
-        <v>1274</v>
-      </c>
-      <c r="AF14" s="16" t="n">
-        <v>1502</v>
-      </c>
-      <c r="AG14" s="16" t="n">
-        <v>1499</v>
-      </c>
-      <c r="AH14" s="16" t="n">
-        <v>1472</v>
-      </c>
-      <c r="AI14" s="16" t="n">
-        <v>1056</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>1575</v>
-      </c>
-      <c r="AK14" s="16" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AL14" s="16" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>1641</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AO14" s="16" t="n">
-        <v>1544</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AQ14" s="16" t="n">
-        <v>1371</v>
-      </c>
-      <c r="AR14" s="16" t="n">
-        <v>1592</v>
-      </c>
-      <c r="AS14" s="16" t="n">
-        <v>1732</v>
-      </c>
-      <c r="AT14" s="16" t="n">
-        <v>1699</v>
-      </c>
-      <c r="AU14" s="16" t="n">
-        <v>1541</v>
-      </c>
-      <c r="AV14" s="16" t="n">
-        <v>1749</v>
-      </c>
-      <c r="AW14" s="16" t="n">
-        <v>1621</v>
-      </c>
-      <c r="AX14" s="16" t="n">
-        <v>1659</v>
-      </c>
-      <c r="AY14" s="16" t="n">
-        <v>1734</v>
-      </c>
-      <c r="AZ14" s="16" t="n">
-        <v>1590</v>
-      </c>
-      <c r="BA14" s="16" t="n">
-        <v>1666</v>
-      </c>
       <c r="BB14" s="16" t="n">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,118 +3887,118 @@
         <v>0</v>
       </c>
       <c r="F15" s="13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" s="13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I15" s="13" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J15" s="13" t="n">
         <v>14</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15" s="13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M15" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N15" s="13" t="n">
         <v>19</v>
-      </c>
-      <c r="N15" s="13" t="n">
-        <v>20</v>
       </c>
       <c r="O15" s="13" t="n">
         <v>19</v>
       </c>
       <c r="P15" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R15" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S15" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="Q15" s="13" t="n">
+      <c r="V15" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="R15" s="13" t="n">
+      <c r="W15" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" s="13" t="n">
         <v>18</v>
-      </c>
-      <c r="S15" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="T15" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="U15" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="W15" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="X15" s="13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>19</v>
       </c>
       <c r="AC15" s="13" t="n">
         <v>18</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AH15" s="13" t="n">
         <v>12</v>
       </c>
       <c r="AI15" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ15" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK15" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="AJ15" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK15" s="13" t="n">
-        <v>16</v>
-      </c>
       <c r="AL15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM15" s="13" t="n">
         <v>12</v>
-      </c>
-      <c r="AM15" s="13" t="n">
-        <v>14</v>
       </c>
       <c r="AN15" s="13" t="n">
         <v>12</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR15" s="13" t="n">
         <v>11</v>
@@ -4007,31 +4007,31 @@
         <v>11</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU15" s="13" t="n">
         <v>13</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AX15" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="13" t="n">
         <v>19</v>
-      </c>
-      <c r="AY15" s="13" t="n">
-        <v>12</v>
       </c>
       <c r="AZ15" s="13" t="n">
         <v>19</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,8 +4150,8 @@
       <c r="U17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="13" t="s">
-        <v>57</v>
+      <c r="V17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W17" s="13" t="n">
         <v>0</v>
@@ -4174,8 +4174,8 @@
       <c r="AC17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>0</v>
+      <c r="AD17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>57</v>
@@ -4304,8 +4304,8 @@
       <c r="T18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U18" s="18" t="s">
-        <v>57</v>
+      <c r="U18" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="18" t="n">
         <v>0</v>
@@ -4414,154 +4414,154 @@
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20" t="n">
-        <v>1986</v>
+        <v>1914</v>
       </c>
       <c r="F19" s="20" t="n">
-        <v>1914</v>
+        <v>1691</v>
       </c>
       <c r="G19" s="20" t="n">
-        <v>1691</v>
+        <v>2139</v>
       </c>
       <c r="H19" s="20" t="n">
-        <v>2139</v>
+        <v>1954</v>
       </c>
       <c r="I19" s="20" t="n">
-        <v>1954</v>
+        <v>2031</v>
       </c>
       <c r="J19" s="20" t="n">
+        <v>1564</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>1868</v>
+      </c>
+      <c r="L19" s="20" t="n">
+        <v>2244</v>
+      </c>
+      <c r="M19" s="20" t="n">
+        <v>2155</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O19" s="20" t="n">
+        <v>2271</v>
+      </c>
+      <c r="P19" s="20" t="n">
+        <v>2321</v>
+      </c>
+      <c r="Q19" s="20" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R19" s="20" t="n">
+        <v>1853</v>
+      </c>
+      <c r="S19" s="20" t="n">
+        <v>2494</v>
+      </c>
+      <c r="T19" s="20" t="n">
+        <v>2315</v>
+      </c>
+      <c r="U19" s="20" t="n">
+        <v>2436</v>
+      </c>
+      <c r="V19" s="20" t="n">
+        <v>2373</v>
+      </c>
+      <c r="W19" s="20" t="n">
+        <v>2271</v>
+      </c>
+      <c r="X19" s="20" t="n">
+        <v>2357</v>
+      </c>
+      <c r="Y19" s="20" t="n">
+        <v>2273</v>
+      </c>
+      <c r="Z19" s="20" t="n">
+        <v>2276</v>
+      </c>
+      <c r="AA19" s="20" t="n">
+        <v>2409</v>
+      </c>
+      <c r="AB19" s="20" t="n">
+        <v>2419</v>
+      </c>
+      <c r="AC19" s="20" t="n">
+        <v>2110</v>
+      </c>
+      <c r="AD19" s="20" t="n">
+        <v>1925</v>
+      </c>
+      <c r="AE19" s="20" t="n">
+        <v>2257</v>
+      </c>
+      <c r="AF19" s="20" t="n">
+        <v>2261</v>
+      </c>
+      <c r="AG19" s="20" t="n">
+        <v>2256</v>
+      </c>
+      <c r="AH19" s="20" t="n">
+        <v>1631</v>
+      </c>
+      <c r="AI19" s="20" t="n">
+        <v>2306</v>
+      </c>
+      <c r="AJ19" s="20" t="n">
+        <v>2175</v>
+      </c>
+      <c r="AK19" s="20" t="n">
+        <v>2409</v>
+      </c>
+      <c r="AL19" s="20" t="n">
+        <v>2333</v>
+      </c>
+      <c r="AM19" s="20" t="n">
+        <v>2409</v>
+      </c>
+      <c r="AN19" s="20" t="n">
+        <v>2231</v>
+      </c>
+      <c r="AO19" s="20" t="n">
+        <v>2195</v>
+      </c>
+      <c r="AP19" s="20" t="n">
+        <v>1994</v>
+      </c>
+      <c r="AQ19" s="20" t="n">
+        <v>2296</v>
+      </c>
+      <c r="AR19" s="20" t="n">
+        <v>2455</v>
+      </c>
+      <c r="AS19" s="20" t="n">
+        <v>2383</v>
+      </c>
+      <c r="AT19" s="20" t="n">
         <v>2031</v>
       </c>
-      <c r="K19" s="20" t="n">
-        <v>1564</v>
-      </c>
-      <c r="L19" s="20" t="n">
-        <v>1868</v>
-      </c>
-      <c r="M19" s="20" t="n">
-        <v>2244</v>
-      </c>
-      <c r="N19" s="20" t="n">
-        <v>2155</v>
-      </c>
-      <c r="O19" s="20" t="n">
-        <v>2202</v>
-      </c>
-      <c r="P19" s="20" t="n">
-        <v>2271</v>
-      </c>
-      <c r="Q19" s="20" t="n">
-        <v>2321</v>
-      </c>
-      <c r="R19" s="20" t="n">
-        <v>2100</v>
-      </c>
-      <c r="S19" s="20" t="n">
-        <v>1853</v>
-      </c>
-      <c r="T19" s="20" t="n">
-        <v>2494</v>
-      </c>
-      <c r="U19" s="20" t="n">
-        <v>2315</v>
-      </c>
-      <c r="V19" s="20" t="n">
-        <v>2436</v>
-      </c>
-      <c r="W19" s="20" t="n">
-        <v>2373</v>
-      </c>
-      <c r="X19" s="20" t="n">
-        <v>2271</v>
-      </c>
-      <c r="Y19" s="20" t="n">
-        <v>2357</v>
-      </c>
-      <c r="Z19" s="20" t="n">
-        <v>2273</v>
-      </c>
-      <c r="AA19" s="20" t="n">
-        <v>2276</v>
-      </c>
-      <c r="AB19" s="20" t="n">
-        <v>2409</v>
-      </c>
-      <c r="AC19" s="20" t="n">
-        <v>2419</v>
-      </c>
-      <c r="AD19" s="20" t="n">
-        <v>2110</v>
-      </c>
-      <c r="AE19" s="20" t="n">
-        <v>1925</v>
-      </c>
-      <c r="AF19" s="20" t="n">
-        <v>2257</v>
-      </c>
-      <c r="AG19" s="20" t="n">
-        <v>2261</v>
-      </c>
-      <c r="AH19" s="20" t="n">
-        <v>2256</v>
-      </c>
-      <c r="AI19" s="20" t="n">
-        <v>1631</v>
-      </c>
-      <c r="AJ19" s="20" t="n">
-        <v>2306</v>
-      </c>
-      <c r="AK19" s="20" t="n">
-        <v>2175</v>
-      </c>
-      <c r="AL19" s="20" t="n">
-        <v>2409</v>
-      </c>
-      <c r="AM19" s="20" t="n">
-        <v>2333</v>
-      </c>
-      <c r="AN19" s="20" t="n">
-        <v>2409</v>
-      </c>
-      <c r="AO19" s="20" t="n">
-        <v>2231</v>
-      </c>
-      <c r="AP19" s="20" t="n">
-        <v>2195</v>
-      </c>
-      <c r="AQ19" s="20" t="n">
-        <v>1994</v>
-      </c>
-      <c r="AR19" s="20" t="n">
+      <c r="AU19" s="20" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AV19" s="20" t="n">
+        <v>2289</v>
+      </c>
+      <c r="AW19" s="20" t="n">
+        <v>2395</v>
+      </c>
+      <c r="AX19" s="20" t="n">
+        <v>2476</v>
+      </c>
+      <c r="AY19" s="20" t="n">
         <v>2296</v>
       </c>
-      <c r="AS19" s="20" t="n">
-        <v>2455</v>
-      </c>
-      <c r="AT19" s="20" t="n">
-        <v>2383</v>
-      </c>
-      <c r="AU19" s="20" t="n">
-        <v>2031</v>
-      </c>
-      <c r="AV19" s="20" t="n">
-        <v>2059</v>
-      </c>
-      <c r="AW19" s="20" t="n">
-        <v>2289</v>
-      </c>
-      <c r="AX19" s="20" t="n">
-        <v>2395</v>
-      </c>
-      <c r="AY19" s="20" t="n">
-        <v>2476</v>
-      </c>
       <c r="AZ19" s="20" t="n">
-        <v>2296</v>
+        <v>2312</v>
       </c>
       <c r="BA19" s="20" t="n">
-        <v>2312</v>
+        <v>2133</v>
       </c>
       <c r="BB19" s="20" t="n">
-        <v>2133</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,8 +5138,8 @@
       <c r="AV26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW26" s="13" t="s">
-        <v>57</v>
+      <c r="AW26" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX26" s="13" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="13" t="n">
         <v>1</v>
@@ -5216,8 +5216,8 @@
       <c r="U27" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="V27" s="16" t="s">
-        <v>57</v>
+      <c r="V27" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W27" s="16" t="n">
         <v>0</v>
@@ -5240,8 +5240,8 @@
       <c r="AC27" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD27" s="16" t="n">
-        <v>0</v>
+      <c r="AD27" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE27" s="16" t="s">
         <v>57</v>
@@ -5325,154 +5325,154 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="n">
-        <v>776</v>
+        <v>941</v>
       </c>
       <c r="F28" s="13" t="n">
-        <v>941</v>
+        <v>459</v>
       </c>
       <c r="G28" s="13" t="n">
-        <v>459</v>
+        <v>547</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>547</v>
+        <v>352</v>
       </c>
       <c r="I28" s="13" t="n">
-        <v>352</v>
+        <v>1017</v>
       </c>
       <c r="J28" s="13" t="n">
-        <v>1017</v>
+        <v>689</v>
       </c>
       <c r="K28" s="13" t="n">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="L28" s="13" t="n">
-        <v>677</v>
+        <v>640</v>
       </c>
       <c r="M28" s="13" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="N28" s="13" t="n">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="O28" s="13" t="n">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="P28" s="13" t="n">
         <v>727</v>
       </c>
       <c r="Q28" s="13" t="n">
-        <v>727</v>
+        <v>888</v>
       </c>
       <c r="R28" s="13" t="n">
-        <v>888</v>
+        <v>492</v>
       </c>
       <c r="S28" s="13" t="n">
-        <v>492</v>
+        <v>858</v>
       </c>
       <c r="T28" s="13" t="n">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="U28" s="13" t="n">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>856</v>
+        <v>909</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>909</v>
+        <v>1061</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>1061</v>
+        <v>997</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>997</v>
+        <v>703</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>703</v>
+        <v>456</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>456</v>
+        <v>1120</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>1120</v>
+        <v>753</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="AD28" s="13" t="n">
-        <v>796</v>
+        <v>515</v>
       </c>
       <c r="AE28" s="13" t="n">
-        <v>515</v>
+        <v>812</v>
       </c>
       <c r="AF28" s="13" t="n">
-        <v>812</v>
+        <v>589</v>
       </c>
       <c r="AG28" s="13" t="n">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AH28" s="13" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="AI28" s="13" t="n">
-        <v>578</v>
+        <v>900</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>900</v>
+        <v>707</v>
       </c>
       <c r="AK28" s="13" t="n">
-        <v>707</v>
+        <v>530</v>
       </c>
       <c r="AL28" s="13" t="n">
-        <v>530</v>
+        <v>839</v>
       </c>
       <c r="AM28" s="13" t="n">
-        <v>839</v>
+        <v>682</v>
       </c>
       <c r="AN28" s="13" t="n">
-        <v>682</v>
+        <v>547</v>
       </c>
       <c r="AO28" s="13" t="n">
-        <v>547</v>
+        <v>650</v>
       </c>
       <c r="AP28" s="13" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="AQ28" s="13" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="AR28" s="13" t="n">
-        <v>528</v>
+        <v>865</v>
       </c>
       <c r="AS28" s="13" t="n">
-        <v>865</v>
+        <v>835</v>
       </c>
       <c r="AT28" s="13" t="n">
-        <v>835</v>
+        <v>614</v>
       </c>
       <c r="AU28" s="13" t="n">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="AV28" s="13" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AW28" s="13" t="n">
-        <v>588</v>
+        <v>820</v>
       </c>
       <c r="AX28" s="13" t="n">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="AY28" s="13" t="n">
-        <v>825</v>
+        <v>679</v>
       </c>
       <c r="AZ28" s="13" t="n">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="BA28" s="13" t="n">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="BB28" s="13" t="n">
-        <v>661</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5484,154 +5484,154 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>1392</v>
+        <v>1365</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>1365</v>
+        <v>647</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>647</v>
+        <v>1225</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>1225</v>
+        <v>487</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>487</v>
+        <v>2037</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>2037</v>
+        <v>1663</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>1663</v>
+        <v>1436</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1436</v>
+        <v>1490</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>1490</v>
+        <v>1369</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>1369</v>
+        <v>1460</v>
       </c>
       <c r="O29" s="16" t="n">
+        <v>1452</v>
+      </c>
+      <c r="P29" s="16" t="n">
+        <v>1497</v>
+      </c>
+      <c r="Q29" s="16" t="n">
+        <v>1393</v>
+      </c>
+      <c r="R29" s="16" t="n">
+        <v>1207</v>
+      </c>
+      <c r="S29" s="16" t="n">
+        <v>1518</v>
+      </c>
+      <c r="T29" s="16" t="n">
+        <v>1469</v>
+      </c>
+      <c r="U29" s="16" t="n">
+        <v>1512</v>
+      </c>
+      <c r="V29" s="16" t="n">
+        <v>1453</v>
+      </c>
+      <c r="W29" s="16" t="n">
+        <v>1422</v>
+      </c>
+      <c r="X29" s="16" t="n">
+        <v>1530</v>
+      </c>
+      <c r="Y29" s="16" t="n">
+        <v>1150</v>
+      </c>
+      <c r="Z29" s="16" t="n">
+        <v>1835</v>
+      </c>
+      <c r="AA29" s="16" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AB29" s="16" t="n">
+        <v>1519</v>
+      </c>
+      <c r="AC29" s="16" t="n">
+        <v>1521</v>
+      </c>
+      <c r="AD29" s="16" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AE29" s="16" t="n">
+        <v>1407</v>
+      </c>
+      <c r="AF29" s="16" t="n">
+        <v>1508</v>
+      </c>
+      <c r="AG29" s="16" t="n">
+        <v>1267</v>
+      </c>
+      <c r="AH29" s="16" t="n">
+        <v>1238</v>
+      </c>
+      <c r="AI29" s="16" t="n">
+        <v>1619</v>
+      </c>
+      <c r="AJ29" s="16" t="n">
+        <v>1514</v>
+      </c>
+      <c r="AK29" s="16" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL29" s="16" t="n">
+        <v>1872</v>
+      </c>
+      <c r="AM29" s="16" t="n">
+        <v>1528</v>
+      </c>
+      <c r="AN29" s="16" t="n">
+        <v>1494</v>
+      </c>
+      <c r="AO29" s="16" t="n">
+        <v>1677</v>
+      </c>
+      <c r="AP29" s="16" t="n">
         <v>1460</v>
       </c>
-      <c r="P29" s="16" t="n">
-        <v>1452</v>
-      </c>
-      <c r="Q29" s="16" t="n">
-        <v>1497</v>
-      </c>
-      <c r="R29" s="16" t="n">
-        <v>1393</v>
-      </c>
-      <c r="S29" s="16" t="n">
-        <v>1207</v>
-      </c>
-      <c r="T29" s="16" t="n">
-        <v>1518</v>
-      </c>
-      <c r="U29" s="16" t="n">
-        <v>1469</v>
-      </c>
-      <c r="V29" s="16" t="n">
-        <v>1512</v>
-      </c>
-      <c r="W29" s="16" t="n">
-        <v>1453</v>
-      </c>
-      <c r="X29" s="16" t="n">
-        <v>1422</v>
-      </c>
-      <c r="Y29" s="16" t="n">
-        <v>1530</v>
-      </c>
-      <c r="Z29" s="16" t="n">
-        <v>1150</v>
-      </c>
-      <c r="AA29" s="16" t="n">
-        <v>1835</v>
-      </c>
-      <c r="AB29" s="16" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AC29" s="16" t="n">
-        <v>1519</v>
-      </c>
-      <c r="AD29" s="16" t="n">
-        <v>1521</v>
-      </c>
-      <c r="AE29" s="16" t="n">
-        <v>1230</v>
-      </c>
-      <c r="AF29" s="16" t="n">
-        <v>1407</v>
-      </c>
-      <c r="AG29" s="16" t="n">
-        <v>1508</v>
-      </c>
-      <c r="AH29" s="16" t="n">
-        <v>1267</v>
-      </c>
-      <c r="AI29" s="16" t="n">
-        <v>1238</v>
-      </c>
-      <c r="AJ29" s="16" t="n">
-        <v>1619</v>
-      </c>
-      <c r="AK29" s="16" t="n">
-        <v>1514</v>
-      </c>
-      <c r="AL29" s="16" t="n">
-        <v>1299</v>
-      </c>
-      <c r="AM29" s="16" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AN29" s="16" t="n">
-        <v>1528</v>
-      </c>
-      <c r="AO29" s="16" t="n">
-        <v>1494</v>
-      </c>
-      <c r="AP29" s="16" t="n">
-        <v>1677</v>
-      </c>
       <c r="AQ29" s="16" t="n">
-        <v>1460</v>
+        <v>1675</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>1675</v>
+        <v>1620</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>1620</v>
+        <v>1589</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>1589</v>
+        <v>1522</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>1522</v>
+        <v>1730</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>1730</v>
+        <v>1700</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>1700</v>
+        <v>1576</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>1576</v>
+        <v>1807</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>1807</v>
+        <v>1704</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>1704</v>
+        <v>1682</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>1682</v>
+        <v>1445</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>1445</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,154 +5643,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L30" s="13" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M30" s="13" t="n">
         <v>19</v>
       </c>
       <c r="N30" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="O30" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="P30" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R30" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="O30" s="13" t="n">
+      <c r="S30" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="T30" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="U30" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="V30" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="W30" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="P30" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="R30" s="13" t="n">
+      <c r="X30" s="13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y30" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA30" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB30" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF30" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="S30" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="T30" s="13" t="n">
+      <c r="AG30" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH30" s="13" t="n">
         <v>11</v>
-      </c>
-      <c r="U30" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="V30" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="W30" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="X30" s="13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA30" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB30" s="13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC30" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD30" s="13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE30" s="13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF30" s="13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG30" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH30" s="13" t="n">
-        <v>10</v>
       </c>
       <c r="AI30" s="13" t="n">
         <v>11</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AN30" s="13" t="n">
         <v>8</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT30" s="13" t="n">
         <v>9</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ30" s="13" t="n">
         <v>22</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,8 +5909,8 @@
       <c r="U32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V32" s="13" t="s">
-        <v>57</v>
+      <c r="V32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W32" s="13" t="n">
         <v>0</v>
@@ -5933,8 +5933,8 @@
       <c r="AC32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" s="13" t="n">
-        <v>0</v>
+      <c r="AD32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE32" s="13" t="s">
         <v>57</v>
@@ -6063,8 +6063,8 @@
       <c r="T33" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="18" t="s">
-        <v>57</v>
+      <c r="U33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="18" t="n">
         <v>0</v>
@@ -6282,8 +6282,8 @@
       <c r="U35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V35" s="13" t="s">
-        <v>57</v>
+      <c r="V35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W35" s="13" t="n">
         <v>0</v>
@@ -6306,8 +6306,8 @@
       <c r="AC35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD35" s="13" t="n">
-        <v>0</v>
+      <c r="AD35" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE35" s="13" t="s">
         <v>57</v>
@@ -6438,35 +6438,35 @@
       <c r="T36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>57</v>
+      <c r="U36" s="16" t="n">
+        <v>-5</v>
       </c>
       <c r="V36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="16" t="n">
         <v>-5</v>
       </c>
-      <c r="W36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" s="16" t="n">
+      <c r="AB36" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="Y36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="16" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AC36" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="16" t="n">
-        <v>-1</v>
+      <c r="AD36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE36" s="16" t="s">
         <v>57</v>
@@ -6480,11 +6480,11 @@
       <c r="AH36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AI36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ36" s="16" t="n">
+      <c r="AI36" s="16" t="n">
         <v>-11</v>
+      </c>
+      <c r="AJ36" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AK36" s="16" t="s">
         <v>57</v>
@@ -6603,8 +6603,8 @@
       <c r="V37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="13" t="s">
-        <v>57</v>
+      <c r="W37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X37" s="13" t="n">
         <v>0</v>
@@ -6624,8 +6624,8 @@
       <c r="AC37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD37" s="13" t="n">
-        <v>0</v>
+      <c r="AD37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE37" s="13" t="s">
         <v>57</v>
@@ -6754,35 +6754,35 @@
       <c r="T38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U38" s="18" t="s">
-        <v>57</v>
+      <c r="U38" s="18" t="n">
+        <v>-5</v>
       </c>
       <c r="V38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="18" t="n">
         <v>-5</v>
       </c>
-      <c r="W38" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" s="18" t="n">
+      <c r="AB38" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="18" t="n">
         <v>-1</v>
       </c>
-      <c r="Y38" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="18" t="n">
-        <v>-5</v>
-      </c>
-      <c r="AC38" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AD38" s="18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AJ38" s="18" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="18" t="n">
         <v>0</v>
@@ -6864,154 +6864,154 @@
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="n">
-        <v>2186</v>
+        <v>2326</v>
       </c>
       <c r="F39" s="20" t="n">
-        <v>2326</v>
+        <v>1115</v>
       </c>
       <c r="G39" s="20" t="n">
-        <v>1115</v>
+        <v>1783</v>
       </c>
       <c r="H39" s="20" t="n">
-        <v>1783</v>
+        <v>842</v>
       </c>
       <c r="I39" s="20" t="n">
-        <v>842</v>
+        <v>3069</v>
       </c>
       <c r="J39" s="20" t="n">
-        <v>3069</v>
+        <v>2373</v>
       </c>
       <c r="K39" s="20" t="n">
-        <v>2373</v>
+        <v>2127</v>
       </c>
       <c r="L39" s="20" t="n">
+        <v>2149</v>
+      </c>
+      <c r="M39" s="20" t="n">
+        <v>2148</v>
+      </c>
+      <c r="N39" s="20" t="n">
+        <v>2229</v>
+      </c>
+      <c r="O39" s="20" t="n">
+        <v>2199</v>
+      </c>
+      <c r="P39" s="20" t="n">
+        <v>2242</v>
+      </c>
+      <c r="Q39" s="20" t="n">
+        <v>2296</v>
+      </c>
+      <c r="R39" s="20" t="n">
+        <v>1718</v>
+      </c>
+      <c r="S39" s="20" t="n">
+        <v>2387</v>
+      </c>
+      <c r="T39" s="20" t="n">
+        <v>2329</v>
+      </c>
+      <c r="U39" s="20" t="n">
+        <v>2378</v>
+      </c>
+      <c r="V39" s="20" t="n">
+        <v>2381</v>
+      </c>
+      <c r="W39" s="20" t="n">
+        <v>2500</v>
+      </c>
+      <c r="X39" s="20" t="n">
+        <v>2543</v>
+      </c>
+      <c r="Y39" s="20" t="n">
+        <v>1865</v>
+      </c>
+      <c r="Z39" s="20" t="n">
+        <v>2305</v>
+      </c>
+      <c r="AA39" s="20" t="n">
+        <v>2608</v>
+      </c>
+      <c r="AB39" s="20" t="n">
+        <v>2291</v>
+      </c>
+      <c r="AC39" s="20" t="n">
+        <v>2330</v>
+      </c>
+      <c r="AD39" s="20" t="n">
+        <v>1756</v>
+      </c>
+      <c r="AE39" s="20" t="n">
+        <v>2238</v>
+      </c>
+      <c r="AF39" s="20" t="n">
+        <v>2112</v>
+      </c>
+      <c r="AG39" s="20" t="n">
+        <v>1872</v>
+      </c>
+      <c r="AH39" s="20" t="n">
+        <v>1827</v>
+      </c>
+      <c r="AI39" s="20" t="n">
+        <v>2519</v>
+      </c>
+      <c r="AJ39" s="20" t="n">
+        <v>2237</v>
+      </c>
+      <c r="AK39" s="20" t="n">
+        <v>1841</v>
+      </c>
+      <c r="AL39" s="20" t="n">
+        <v>2724</v>
+      </c>
+      <c r="AM39" s="20" t="n">
+        <v>2218</v>
+      </c>
+      <c r="AN39" s="20" t="n">
+        <v>2049</v>
+      </c>
+      <c r="AO39" s="20" t="n">
+        <v>2340</v>
+      </c>
+      <c r="AP39" s="20" t="n">
+        <v>1872</v>
+      </c>
+      <c r="AQ39" s="20" t="n">
+        <v>2214</v>
+      </c>
+      <c r="AR39" s="20" t="n">
+        <v>2495</v>
+      </c>
+      <c r="AS39" s="20" t="n">
+        <v>2433</v>
+      </c>
+      <c r="AT39" s="20" t="n">
+        <v>2145</v>
+      </c>
+      <c r="AU39" s="20" t="n">
+        <v>2319</v>
+      </c>
+      <c r="AV39" s="20" t="n">
+        <v>2304</v>
+      </c>
+      <c r="AW39" s="20" t="n">
+        <v>2420</v>
+      </c>
+      <c r="AX39" s="20" t="n">
+        <v>2651</v>
+      </c>
+      <c r="AY39" s="20" t="n">
+        <v>2405</v>
+      </c>
+      <c r="AZ39" s="20" t="n">
+        <v>2379</v>
+      </c>
+      <c r="BA39" s="20" t="n">
         <v>2127</v>
       </c>
-      <c r="M39" s="20" t="n">
-        <v>2149</v>
-      </c>
-      <c r="N39" s="20" t="n">
-        <v>2148</v>
-      </c>
-      <c r="O39" s="20" t="n">
-        <v>2229</v>
-      </c>
-      <c r="P39" s="20" t="n">
-        <v>2199</v>
-      </c>
-      <c r="Q39" s="20" t="n">
-        <v>2242</v>
-      </c>
-      <c r="R39" s="20" t="n">
-        <v>2296</v>
-      </c>
-      <c r="S39" s="20" t="n">
-        <v>1718</v>
-      </c>
-      <c r="T39" s="20" t="n">
-        <v>2387</v>
-      </c>
-      <c r="U39" s="20" t="n">
-        <v>2329</v>
-      </c>
-      <c r="V39" s="20" t="n">
-        <v>2378</v>
-      </c>
-      <c r="W39" s="20" t="n">
-        <v>2381</v>
-      </c>
-      <c r="X39" s="20" t="n">
-        <v>2500</v>
-      </c>
-      <c r="Y39" s="20" t="n">
-        <v>2543</v>
-      </c>
-      <c r="Z39" s="20" t="n">
-        <v>1865</v>
-      </c>
-      <c r="AA39" s="20" t="n">
-        <v>2305</v>
-      </c>
-      <c r="AB39" s="20" t="n">
-        <v>2608</v>
-      </c>
-      <c r="AC39" s="20" t="n">
-        <v>2291</v>
-      </c>
-      <c r="AD39" s="20" t="n">
-        <v>2330</v>
-      </c>
-      <c r="AE39" s="20" t="n">
-        <v>1756</v>
-      </c>
-      <c r="AF39" s="20" t="n">
-        <v>2238</v>
-      </c>
-      <c r="AG39" s="20" t="n">
-        <v>2112</v>
-      </c>
-      <c r="AH39" s="20" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AI39" s="20" t="n">
-        <v>1827</v>
-      </c>
-      <c r="AJ39" s="20" t="n">
-        <v>2519</v>
-      </c>
-      <c r="AK39" s="20" t="n">
-        <v>2237</v>
-      </c>
-      <c r="AL39" s="20" t="n">
-        <v>1841</v>
-      </c>
-      <c r="AM39" s="20" t="n">
-        <v>2724</v>
-      </c>
-      <c r="AN39" s="20" t="n">
-        <v>2218</v>
-      </c>
-      <c r="AO39" s="20" t="n">
-        <v>2049</v>
-      </c>
-      <c r="AP39" s="20" t="n">
-        <v>2340</v>
-      </c>
-      <c r="AQ39" s="20" t="n">
-        <v>1872</v>
-      </c>
-      <c r="AR39" s="20" t="n">
-        <v>2214</v>
-      </c>
-      <c r="AS39" s="20" t="n">
-        <v>2495</v>
-      </c>
-      <c r="AT39" s="20" t="n">
-        <v>2433</v>
-      </c>
-      <c r="AU39" s="20" t="n">
-        <v>2145</v>
-      </c>
-      <c r="AV39" s="20" t="n">
-        <v>2319</v>
-      </c>
-      <c r="AW39" s="20" t="n">
-        <v>2304</v>
-      </c>
-      <c r="AX39" s="20" t="n">
-        <v>2420</v>
-      </c>
-      <c r="AY39" s="20" t="n">
-        <v>2651</v>
-      </c>
-      <c r="AZ39" s="20" t="n">
-        <v>2405</v>
-      </c>
-      <c r="BA39" s="20" t="n">
-        <v>2379</v>
-      </c>
       <c r="BB39" s="20" t="n">
-        <v>2127</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7588,8 +7588,8 @@
       <c r="AV46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW46" s="13" t="s">
-        <v>57</v>
+      <c r="AW46" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AX46" s="13" t="n">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>0</v>
+        <v>1947</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>1947</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7666,8 +7666,8 @@
       <c r="U47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="V47" s="16" t="s">
-        <v>57</v>
+      <c r="V47" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="W47" s="16" t="n">
         <v>0</v>
@@ -7690,8 +7690,8 @@
       <c r="AC47" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD47" s="16" t="n">
-        <v>0</v>
+      <c r="AD47" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE47" s="16" t="s">
         <v>57</v>
@@ -7775,154 +7775,154 @@
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="n">
-        <v>149549</v>
+        <v>193392</v>
       </c>
       <c r="F48" s="13" t="n">
-        <v>193392</v>
+        <v>86899</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>86899</v>
+        <v>103116</v>
       </c>
       <c r="H48" s="13" t="n">
-        <v>103116</v>
+        <v>66841</v>
       </c>
       <c r="I48" s="13" t="n">
-        <v>66841</v>
+        <v>242580</v>
       </c>
       <c r="J48" s="13" t="n">
-        <v>242580</v>
+        <v>166996</v>
       </c>
       <c r="K48" s="13" t="n">
-        <v>166996</v>
+        <v>168885</v>
       </c>
       <c r="L48" s="13" t="n">
-        <v>168885</v>
+        <v>158407</v>
       </c>
       <c r="M48" s="13" t="n">
-        <v>158407</v>
+        <v>185245</v>
       </c>
       <c r="N48" s="13" t="n">
-        <v>185245</v>
+        <v>185456</v>
       </c>
       <c r="O48" s="13" t="n">
-        <v>185456</v>
+        <v>175298</v>
       </c>
       <c r="P48" s="13" t="n">
-        <v>175298</v>
+        <v>194041</v>
       </c>
       <c r="Q48" s="13" t="n">
-        <v>194041</v>
+        <v>237487</v>
       </c>
       <c r="R48" s="13" t="n">
-        <v>237487</v>
+        <v>131723</v>
       </c>
       <c r="S48" s="13" t="n">
-        <v>131723</v>
+        <v>227987</v>
       </c>
       <c r="T48" s="13" t="n">
-        <v>227987</v>
+        <v>230696</v>
       </c>
       <c r="U48" s="13" t="n">
-        <v>230696</v>
+        <v>287965</v>
       </c>
       <c r="V48" s="13" t="n">
-        <v>287965</v>
+        <v>367574</v>
       </c>
       <c r="W48" s="13" t="n">
-        <v>367574</v>
+        <v>475180</v>
       </c>
       <c r="X48" s="13" t="n">
-        <v>475180</v>
+        <v>449601</v>
       </c>
       <c r="Y48" s="13" t="n">
-        <v>449601</v>
+        <v>312822</v>
       </c>
       <c r="Z48" s="13" t="n">
-        <v>312822</v>
+        <v>198715</v>
       </c>
       <c r="AA48" s="13" t="n">
-        <v>198715</v>
+        <v>674251</v>
       </c>
       <c r="AB48" s="13" t="n">
-        <v>674251</v>
+        <v>427528</v>
       </c>
       <c r="AC48" s="13" t="n">
-        <v>427528</v>
+        <v>451253</v>
       </c>
       <c r="AD48" s="13" t="n">
-        <v>451253</v>
+        <v>291506</v>
       </c>
       <c r="AE48" s="13" t="n">
-        <v>291506</v>
+        <v>455784</v>
       </c>
       <c r="AF48" s="13" t="n">
-        <v>455784</v>
+        <v>336254</v>
       </c>
       <c r="AG48" s="13" t="n">
-        <v>336254</v>
+        <v>339235</v>
       </c>
       <c r="AH48" s="13" t="n">
-        <v>339235</v>
+        <v>330081</v>
       </c>
       <c r="AI48" s="13" t="n">
-        <v>330081</v>
+        <v>512373</v>
       </c>
       <c r="AJ48" s="13" t="n">
-        <v>512373</v>
+        <v>401695</v>
       </c>
       <c r="AK48" s="13" t="n">
-        <v>401695</v>
+        <v>337451</v>
       </c>
       <c r="AL48" s="13" t="n">
-        <v>337451</v>
+        <v>553679</v>
       </c>
       <c r="AM48" s="13" t="n">
-        <v>553679</v>
+        <v>465731</v>
       </c>
       <c r="AN48" s="13" t="n">
-        <v>465731</v>
+        <v>373403</v>
       </c>
       <c r="AO48" s="13" t="n">
-        <v>373403</v>
+        <v>437789</v>
       </c>
       <c r="AP48" s="13" t="n">
-        <v>437789</v>
+        <v>260081</v>
       </c>
       <c r="AQ48" s="13" t="n">
-        <v>260081</v>
+        <v>351058</v>
       </c>
       <c r="AR48" s="13" t="n">
-        <v>351058</v>
+        <v>642521</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>642521</v>
+        <v>618125</v>
       </c>
       <c r="AT48" s="13" t="n">
-        <v>618125</v>
+        <v>451057</v>
       </c>
       <c r="AU48" s="13" t="n">
-        <v>451057</v>
+        <v>473949</v>
       </c>
       <c r="AV48" s="13" t="n">
-        <v>473949</v>
+        <v>471217</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>471217</v>
+        <v>670540</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>670540</v>
+        <v>705745</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>705745</v>
+        <v>576648</v>
       </c>
       <c r="AZ48" s="13" t="n">
-        <v>576648</v>
+        <v>593206</v>
       </c>
       <c r="BA48" s="13" t="n">
-        <v>593206</v>
+        <v>616446</v>
       </c>
       <c r="BB48" s="13" t="n">
-        <v>616446</v>
+        <v>402369</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,154 +7934,154 @@
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16" t="n">
-        <v>263406</v>
+        <v>257209</v>
       </c>
       <c r="F49" s="16" t="n">
-        <v>257209</v>
+        <v>122385</v>
       </c>
       <c r="G49" s="16" t="n">
-        <v>122385</v>
+        <v>233304</v>
       </c>
       <c r="H49" s="16" t="n">
-        <v>233304</v>
+        <v>94341</v>
       </c>
       <c r="I49" s="16" t="n">
-        <v>94341</v>
+        <v>489204</v>
       </c>
       <c r="J49" s="16" t="n">
-        <v>489204</v>
+        <v>387126</v>
       </c>
       <c r="K49" s="16" t="n">
-        <v>387126</v>
+        <v>336730</v>
       </c>
       <c r="L49" s="16" t="n">
-        <v>336730</v>
+        <v>349188</v>
       </c>
       <c r="M49" s="16" t="n">
-        <v>349188</v>
+        <v>320867</v>
       </c>
       <c r="N49" s="16" t="n">
-        <v>320867</v>
+        <v>344266</v>
       </c>
       <c r="O49" s="16" t="n">
-        <v>344266</v>
+        <v>344417</v>
       </c>
       <c r="P49" s="16" t="n">
-        <v>344417</v>
+        <v>356722</v>
       </c>
       <c r="Q49" s="16" t="n">
-        <v>356722</v>
+        <v>329853</v>
       </c>
       <c r="R49" s="16" t="n">
-        <v>329853</v>
+        <v>284414</v>
       </c>
       <c r="S49" s="16" t="n">
-        <v>284414</v>
+        <v>365372</v>
       </c>
       <c r="T49" s="16" t="n">
-        <v>365372</v>
+        <v>350551</v>
       </c>
       <c r="U49" s="16" t="n">
-        <v>350551</v>
+        <v>445823</v>
       </c>
       <c r="V49" s="16" t="n">
-        <v>445823</v>
+        <v>499079</v>
       </c>
       <c r="W49" s="16" t="n">
-        <v>499079</v>
+        <v>521093</v>
       </c>
       <c r="X49" s="16" t="n">
-        <v>521093</v>
+        <v>566884</v>
       </c>
       <c r="Y49" s="16" t="n">
-        <v>566884</v>
+        <v>427186</v>
       </c>
       <c r="Z49" s="16" t="n">
-        <v>427186</v>
+        <v>1043736</v>
       </c>
       <c r="AA49" s="16" t="n">
-        <v>1043736</v>
+        <v>896744</v>
       </c>
       <c r="AB49" s="16" t="n">
-        <v>896744</v>
+        <v>847281</v>
       </c>
       <c r="AC49" s="16" t="n">
-        <v>847281</v>
+        <v>838259</v>
       </c>
       <c r="AD49" s="16" t="n">
-        <v>838259</v>
+        <v>679098</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>679098</v>
+        <v>782577</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>782577</v>
+        <v>826557</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>826557</v>
+        <v>692990</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>692990</v>
+        <v>679345</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>679345</v>
+        <v>884001</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>884001</v>
+        <v>826583</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>826583</v>
+        <v>712590</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>712590</v>
+        <v>1030769</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>1030769</v>
+        <v>851125</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>851125</v>
+        <v>824421</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>824421</v>
+        <v>931840</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>931840</v>
+        <v>809499</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>809499</v>
+        <v>931871</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>931871</v>
+        <v>1024868</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>1024868</v>
+        <v>1121762</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>1121762</v>
+        <v>1104724</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>1104724</v>
+        <v>1263641</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>1263641</v>
+        <v>1268138</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>1268138</v>
+        <v>1190869</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>1190869</v>
+        <v>1359882</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>1359882</v>
+        <v>1313129</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>1313129</v>
+        <v>1296677</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>1296677</v>
+        <v>1238357</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>1238357</v>
+        <v>1346287</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,154 +8093,154 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="n">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="F50" s="13" t="n">
-        <v>2680</v>
+        <v>1112</v>
       </c>
       <c r="G50" s="13" t="n">
-        <v>1112</v>
+        <v>1198</v>
       </c>
       <c r="H50" s="13" t="n">
-        <v>1198</v>
+        <v>338</v>
       </c>
       <c r="I50" s="13" t="n">
-        <v>338</v>
+        <v>2606</v>
       </c>
       <c r="J50" s="13" t="n">
-        <v>2606</v>
+        <v>3578</v>
       </c>
       <c r="K50" s="13" t="n">
-        <v>3578</v>
+        <v>2367</v>
       </c>
       <c r="L50" s="13" t="n">
-        <v>2367</v>
+        <v>3211</v>
       </c>
       <c r="M50" s="13" t="n">
-        <v>3211</v>
+        <v>3430</v>
       </c>
       <c r="N50" s="13" t="n">
-        <v>3430</v>
+        <v>4184</v>
       </c>
       <c r="O50" s="13" t="n">
-        <v>4184</v>
+        <v>4275</v>
       </c>
       <c r="P50" s="13" t="n">
-        <v>4275</v>
+        <v>4430</v>
       </c>
       <c r="Q50" s="13" t="n">
-        <v>4430</v>
+        <v>3745</v>
       </c>
       <c r="R50" s="13" t="n">
-        <v>3745</v>
+        <v>4441</v>
       </c>
       <c r="S50" s="13" t="n">
-        <v>4441</v>
+        <v>2814</v>
       </c>
       <c r="T50" s="13" t="n">
-        <v>2814</v>
+        <v>2767</v>
       </c>
       <c r="U50" s="13" t="n">
-        <v>2767</v>
+        <v>4102</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>4102</v>
+        <v>6168</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>6168</v>
+        <v>6542</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>6542</v>
+        <v>6184</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>6184</v>
+        <v>4305</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>4305</v>
+        <v>4870</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>4870</v>
+        <v>5905</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>5905</v>
+        <v>7361</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>7361</v>
+        <v>5002</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>5002</v>
+        <v>3731</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>3731</v>
+        <v>6360</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>6360</v>
+        <v>5181</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>5181</v>
+        <v>3295</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>3295</v>
+        <v>3642</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>3642</v>
+        <v>3514</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>3514</v>
+        <v>5312</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>5312</v>
+        <v>3940</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>3940</v>
+        <v>4417</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>4417</v>
+        <v>2799</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>2799</v>
+        <v>2837</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>2837</v>
+        <v>4250</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>4250</v>
+        <v>4902</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>4902</v>
+        <v>6260</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>6260</v>
+        <v>5436</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>5436</v>
+        <v>5384</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>5384</v>
+        <v>5597</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>5597</v>
+        <v>5910</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>5910</v>
+        <v>12013</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>12013</v>
+        <v>17643</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>17643</v>
+        <v>13735</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>13735</v>
+        <v>16375</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>16375</v>
+        <v>15121</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>15121</v>
+        <v>14232</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>14232</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8359,8 +8359,8 @@
       <c r="U52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V52" s="13" t="s">
-        <v>57</v>
+      <c r="V52" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W52" s="13" t="n">
         <v>0</v>
@@ -8383,8 +8383,8 @@
       <c r="AC52" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD52" s="13" t="n">
-        <v>0</v>
+      <c r="AD52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE52" s="13" t="s">
         <v>57</v>
@@ -8515,8 +8515,8 @@
       <c r="T53" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U53" s="18" t="s">
-        <v>57</v>
+      <c r="U53" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="21" t="n">
         <v>0</v>
@@ -8734,8 +8734,8 @@
       <c r="U55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V55" s="13" t="s">
-        <v>57</v>
+      <c r="V55" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W55" s="13" t="n">
         <v>0</v>
@@ -8758,8 +8758,8 @@
       <c r="AC55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="13" t="n">
-        <v>0</v>
+      <c r="AD55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>57</v>
@@ -8890,17 +8890,17 @@
       <c r="T56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>57</v>
+      <c r="U56" s="16" t="n">
+        <v>-556</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="16" t="n">
         <v>0</v>
@@ -8909,34 +8909,34 @@
         <v>0</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="16" t="n">
         <v>-524</v>
       </c>
+      <c r="AD56" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AE56" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AF56" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG56" s="16" t="s">
-        <v>57</v>
+      <c r="AG56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH56" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="16" t="n">
         <v>0</v>
@@ -8953,8 +8953,8 @@
       <c r="AO56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP56" s="16" t="n">
-        <v>0</v>
+      <c r="AP56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ56" s="16" t="s">
         <v>57</v>
@@ -9055,8 +9055,8 @@
       <c r="V57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>57</v>
+      <c r="W57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="X57" s="13" t="n">
         <v>0</v>
@@ -9076,8 +9076,8 @@
       <c r="AC57" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD57" s="13" t="n">
-        <v>0</v>
+      <c r="AD57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE57" s="13" t="s">
         <v>57</v>
@@ -9208,17 +9208,17 @@
       <c r="T58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U58" s="18" t="s">
-        <v>57</v>
+      <c r="U58" s="21" t="n">
+        <v>-556</v>
       </c>
       <c r="V58" s="21" t="n">
-        <v>-556</v>
+        <v>0</v>
       </c>
       <c r="W58" s="21" t="n">
-        <v>0</v>
+        <v>-188</v>
       </c>
       <c r="X58" s="21" t="n">
-        <v>-188</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="21" t="n">
         <v>0</v>
@@ -9227,16 +9227,16 @@
         <v>0</v>
       </c>
       <c r="AA58" s="21" t="n">
-        <v>0</v>
+        <v>-3542</v>
       </c>
       <c r="AB58" s="21" t="n">
-        <v>-3542</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="21" t="n">
-        <v>0</v>
+        <v>-524</v>
       </c>
       <c r="AD58" s="21" t="n">
-        <v>-524</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="21" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="AI58" s="21" t="n">
-        <v>0</v>
+        <v>-7527</v>
       </c>
       <c r="AJ58" s="21" t="n">
-        <v>-7527</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="21" t="n">
         <v>0</v>
@@ -9424,71 +9424,71 @@
       <c r="T60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U60" s="13" t="s">
-        <v>57</v>
+      <c r="U60" s="13" t="n">
+        <v>-8479</v>
       </c>
       <c r="V60" s="13" t="n">
-        <v>-8479</v>
+        <v>-8791</v>
       </c>
       <c r="W60" s="13" t="n">
-        <v>-8791</v>
+        <v>-15677</v>
       </c>
       <c r="X60" s="13" t="n">
-        <v>-15677</v>
+        <v>-12200</v>
       </c>
       <c r="Y60" s="13" t="n">
-        <v>-12200</v>
+        <v>-10759</v>
       </c>
       <c r="Z60" s="13" t="n">
-        <v>-10759</v>
+        <v>-11848</v>
       </c>
       <c r="AA60" s="13" t="n">
-        <v>-11848</v>
+        <v>-12664</v>
       </c>
       <c r="AB60" s="13" t="n">
-        <v>-12664</v>
+        <v>-12159</v>
       </c>
       <c r="AC60" s="13" t="n">
-        <v>-12159</v>
+        <v>-16690</v>
       </c>
       <c r="AD60" s="13" t="n">
-        <v>-16690</v>
+        <v>-8015</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>-8015</v>
+        <v>-10431</v>
       </c>
       <c r="AF60" s="13" t="n">
-        <v>-10431</v>
+        <v>-9973</v>
       </c>
       <c r="AG60" s="13" t="n">
-        <v>-9973</v>
+        <v>-10506</v>
       </c>
       <c r="AH60" s="13" t="n">
-        <v>-10506</v>
+        <v>-9808</v>
       </c>
       <c r="AI60" s="13" t="n">
-        <v>-9808</v>
+        <v>-12001</v>
       </c>
       <c r="AJ60" s="13" t="n">
-        <v>-12001</v>
+        <v>-6868</v>
       </c>
       <c r="AK60" s="13" t="n">
-        <v>-6868</v>
+        <v>-16758</v>
       </c>
       <c r="AL60" s="13" t="n">
-        <v>-16758</v>
+        <v>-17320</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>-17320</v>
+        <v>-12115</v>
       </c>
       <c r="AN60" s="13" t="n">
-        <v>-12115</v>
+        <v>-10594</v>
       </c>
       <c r="AO60" s="13" t="n">
-        <v>-10594</v>
+        <v>-16008</v>
       </c>
       <c r="AP60" s="13" t="n">
-        <v>-16008</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="13" t="n">
         <v>0</v>
@@ -9534,154 +9534,154 @@
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21" t="n">
-        <v>415631</v>
+        <v>453281</v>
       </c>
       <c r="F61" s="21" t="n">
-        <v>453281</v>
+        <v>210396</v>
       </c>
       <c r="G61" s="21" t="n">
-        <v>210396</v>
+        <v>337618</v>
       </c>
       <c r="H61" s="21" t="n">
-        <v>337618</v>
+        <v>161520</v>
       </c>
       <c r="I61" s="21" t="n">
-        <v>161520</v>
+        <v>734390</v>
       </c>
       <c r="J61" s="21" t="n">
-        <v>734390</v>
+        <v>557700</v>
       </c>
       <c r="K61" s="21" t="n">
-        <v>557700</v>
+        <v>507982</v>
       </c>
       <c r="L61" s="21" t="n">
-        <v>507982</v>
+        <v>510806</v>
       </c>
       <c r="M61" s="21" t="n">
-        <v>510806</v>
+        <v>509542</v>
       </c>
       <c r="N61" s="21" t="n">
-        <v>509542</v>
+        <v>533906</v>
       </c>
       <c r="O61" s="21" t="n">
-        <v>533906</v>
+        <v>523990</v>
       </c>
       <c r="P61" s="21" t="n">
-        <v>523990</v>
+        <v>555193</v>
       </c>
       <c r="Q61" s="21" t="n">
-        <v>555193</v>
+        <v>571085</v>
       </c>
       <c r="R61" s="21" t="n">
-        <v>571085</v>
+        <v>420578</v>
       </c>
       <c r="S61" s="21" t="n">
-        <v>420578</v>
+        <v>596173</v>
       </c>
       <c r="T61" s="21" t="n">
-        <v>596173</v>
+        <v>584014</v>
       </c>
       <c r="U61" s="21" t="n">
-        <v>584014</v>
+        <v>728855</v>
       </c>
       <c r="V61" s="21" t="n">
-        <v>728855</v>
+        <v>864030</v>
       </c>
       <c r="W61" s="21" t="n">
-        <v>864030</v>
+        <v>986950</v>
       </c>
       <c r="X61" s="21" t="n">
-        <v>986950</v>
+        <v>1010469</v>
       </c>
       <c r="Y61" s="21" t="n">
-        <v>1010469</v>
+        <v>733554</v>
       </c>
       <c r="Z61" s="21" t="n">
-        <v>733554</v>
+        <v>1235473</v>
       </c>
       <c r="AA61" s="21" t="n">
-        <v>1235473</v>
+        <v>1560694</v>
       </c>
       <c r="AB61" s="21" t="n">
-        <v>1560694</v>
+        <v>1270011</v>
       </c>
       <c r="AC61" s="21" t="n">
-        <v>1270011</v>
+        <v>1277300</v>
       </c>
       <c r="AD61" s="21" t="n">
-        <v>1277300</v>
+        <v>966320</v>
       </c>
       <c r="AE61" s="21" t="n">
-        <v>966320</v>
+        <v>1234290</v>
       </c>
       <c r="AF61" s="21" t="n">
-        <v>1234290</v>
+        <v>1158019</v>
       </c>
       <c r="AG61" s="21" t="n">
-        <v>1158019</v>
+        <v>1025014</v>
       </c>
       <c r="AH61" s="21" t="n">
-        <v>1025014</v>
+        <v>1003260</v>
       </c>
       <c r="AI61" s="21" t="n">
-        <v>1003260</v>
+        <v>1380360</v>
       </c>
       <c r="AJ61" s="21" t="n">
-        <v>1380360</v>
+        <v>1226722</v>
       </c>
       <c r="AK61" s="21" t="n">
-        <v>1226722</v>
+        <v>1037223</v>
       </c>
       <c r="AL61" s="21" t="n">
-        <v>1037223</v>
+        <v>1571545</v>
       </c>
       <c r="AM61" s="21" t="n">
-        <v>1571545</v>
+        <v>1307540</v>
       </c>
       <c r="AN61" s="21" t="n">
-        <v>1307540</v>
+        <v>1190067</v>
       </c>
       <c r="AO61" s="21" t="n">
-        <v>1190067</v>
+        <v>1357871</v>
       </c>
       <c r="AP61" s="21" t="n">
-        <v>1357871</v>
+        <v>1074482</v>
       </c>
       <c r="AQ61" s="21" t="n">
-        <v>1074482</v>
+        <v>1289189</v>
       </c>
       <c r="AR61" s="21" t="n">
-        <v>1289189</v>
+        <v>1672825</v>
       </c>
       <c r="AS61" s="21" t="n">
-        <v>1672825</v>
+        <v>1745271</v>
       </c>
       <c r="AT61" s="21" t="n">
-        <v>1745271</v>
+        <v>1561378</v>
       </c>
       <c r="AU61" s="21" t="n">
-        <v>1561378</v>
+        <v>1743500</v>
       </c>
       <c r="AV61" s="21" t="n">
-        <v>1743500</v>
+        <v>1751368</v>
       </c>
       <c r="AW61" s="21" t="n">
-        <v>1751368</v>
+        <v>1879052</v>
       </c>
       <c r="AX61" s="21" t="n">
-        <v>1879052</v>
+        <v>2079362</v>
       </c>
       <c r="AY61" s="21" t="n">
-        <v>2079362</v>
+        <v>1906152</v>
       </c>
       <c r="AZ61" s="21" t="n">
-        <v>1906152</v>
+        <v>1905004</v>
       </c>
       <c r="BA61" s="21" t="n">
-        <v>1905004</v>
+        <v>1870982</v>
       </c>
       <c r="BB61" s="21" t="n">
-        <v>1870982</v>
+        <v>1761541</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10270,11 +10270,11 @@
       <c r="AZ68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BA68" s="13" t="s">
-        <v>57</v>
+      <c r="BA68" s="13" t="n">
+        <v>1947000000</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>1947000000</v>
+        <v>1450000000</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10286,154 +10286,154 @@
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="n">
-        <v>192717784</v>
+        <v>205517535</v>
       </c>
       <c r="F69" s="16" t="n">
-        <v>205517535</v>
+        <v>189322440</v>
       </c>
       <c r="G69" s="16" t="n">
-        <v>189322440</v>
+        <v>188511883</v>
       </c>
       <c r="H69" s="16" t="n">
-        <v>188511883</v>
+        <v>189889205</v>
       </c>
       <c r="I69" s="16" t="n">
-        <v>189889205</v>
+        <v>238525074</v>
       </c>
       <c r="J69" s="16" t="n">
-        <v>238525074</v>
+        <v>242374456</v>
       </c>
       <c r="K69" s="16" t="n">
-        <v>242374456</v>
+        <v>249460857</v>
       </c>
       <c r="L69" s="16" t="n">
-        <v>249460857</v>
+        <v>247510938</v>
       </c>
       <c r="M69" s="16" t="n">
-        <v>247510938</v>
+        <v>243743421</v>
       </c>
       <c r="N69" s="16" t="n">
-        <v>243743421</v>
+        <v>246945406</v>
       </c>
       <c r="O69" s="16" t="n">
-        <v>246945406</v>
+        <v>241125172</v>
       </c>
       <c r="P69" s="16" t="n">
-        <v>241125172</v>
+        <v>266906465</v>
       </c>
       <c r="Q69" s="16" t="n">
-        <v>266906465</v>
+        <v>267440315</v>
       </c>
       <c r="R69" s="16" t="n">
-        <v>267440315</v>
+        <v>267729675</v>
       </c>
       <c r="S69" s="16" t="n">
-        <v>267729675</v>
+        <v>265719114</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>265719114</v>
+        <v>272047170</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>272047170</v>
+        <v>336407710</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>336407710</v>
+        <v>404371837</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>404371837</v>
+        <v>447860509</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>447860509</v>
+        <v>450953862</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>450953862</v>
+        <v>444981508</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>444981508</v>
+        <v>435778509</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>435778509</v>
+        <v>602009821</v>
       </c>
       <c r="AB69" s="16" t="n">
-        <v>602009821</v>
+        <v>567766268</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>567766268</v>
+        <v>566900754</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>566900754</v>
+        <v>566031068</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>566031068</v>
+        <v>561310345</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>561310345</v>
+        <v>570889643</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>570889643</v>
+        <v>570142857</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>570142857</v>
+        <v>571074394</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>571074394</v>
+        <v>569303333</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>569303333</v>
+        <v>568168317</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>568168317</v>
+        <v>636700000</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>636700000</v>
+        <v>659927294</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>659927294</v>
+        <v>682890029</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>682890029</v>
+        <v>682638026</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>682638026</v>
+        <v>673521538</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>673521538</v>
+        <v>650202500</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>650202500</v>
+        <v>664882576</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>664882576</v>
+        <v>742798844</v>
       </c>
       <c r="AS69" s="16" t="n">
-        <v>742798844</v>
+        <v>740269461</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>740269461</v>
+        <v>734620521</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>734620521</v>
+        <v>814345361</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>814345361</v>
+        <v>801389456</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>801389456</v>
+        <v>817731707</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>817731707</v>
+        <v>855448485</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>855448485</v>
+        <v>849260677</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>849260677</v>
+        <v>878823704</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>878823704</v>
+        <v>932596067</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>932596067</v>
+        <v>1021241117</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,154 +10445,154 @@
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="n">
-        <v>189228448</v>
+        <v>188431502</v>
       </c>
       <c r="F70" s="13" t="n">
-        <v>188431502</v>
+        <v>189157651</v>
       </c>
       <c r="G70" s="13" t="n">
-        <v>189157651</v>
+        <v>190452245</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>190452245</v>
+        <v>193718686</v>
       </c>
       <c r="I70" s="13" t="n">
-        <v>193718686</v>
+        <v>240159057</v>
       </c>
       <c r="J70" s="13" t="n">
-        <v>240159057</v>
+        <v>232787733</v>
       </c>
       <c r="K70" s="13" t="n">
-        <v>232787733</v>
+        <v>234491643</v>
       </c>
       <c r="L70" s="13" t="n">
-        <v>234491643</v>
+        <v>234354362</v>
       </c>
       <c r="M70" s="13" t="n">
-        <v>234354362</v>
+        <v>234380570</v>
       </c>
       <c r="N70" s="13" t="n">
-        <v>234380570</v>
+        <v>235798630</v>
       </c>
       <c r="O70" s="13" t="n">
-        <v>235798630</v>
+        <v>237201791</v>
       </c>
       <c r="P70" s="13" t="n">
-        <v>237201791</v>
+        <v>238291249</v>
       </c>
       <c r="Q70" s="13" t="n">
-        <v>238291249</v>
+        <v>236793252</v>
       </c>
       <c r="R70" s="13" t="n">
-        <v>236793252</v>
+        <v>235637117</v>
       </c>
       <c r="S70" s="13" t="n">
-        <v>235637117</v>
+        <v>240693017</v>
       </c>
       <c r="T70" s="13" t="n">
-        <v>240693017</v>
+        <v>238632403</v>
       </c>
       <c r="U70" s="13" t="n">
-        <v>238632403</v>
+        <v>294856481</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>294856481</v>
+        <v>343481762</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>343481762</v>
+        <v>366450774</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>366450774</v>
+        <v>370512418</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>370512418</v>
+        <v>371466087</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>371466087</v>
+        <v>568793460</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>568793460</v>
+        <v>605908108</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>605908108</v>
+        <v>557788677</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>557788677</v>
+        <v>551123603</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>551123603</v>
+        <v>552112195</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>552112195</v>
+        <v>556202559</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>556202559</v>
+        <v>548114721</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>548114721</v>
+        <v>546953433</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>546953433</v>
+        <v>548743942</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>548743942</v>
+        <v>546016677</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>546016677</v>
+        <v>545959709</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>545959709</v>
+        <v>548568129</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>548568129</v>
+        <v>550624466</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>550624466</v>
+        <v>557018979</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>557018979</v>
+        <v>551821285</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>551821285</v>
+        <v>555658915</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>555658915</v>
+        <v>554451370</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>554451370</v>
+        <v>556340896</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>556340896</v>
+        <v>632634568</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>632634568</v>
+        <v>705954688</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>705954688</v>
+        <v>725837057</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>725837057</v>
+        <v>730428324</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>730428324</v>
+        <v>745963529</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>745963529</v>
+        <v>755627538</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>755627538</v>
+        <v>752563365</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>752563365</v>
+        <v>770615610</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>770615610</v>
+        <v>770913793</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>770913793</v>
+        <v>856994464</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>856994464</v>
+        <v>934921528</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,154 +10604,154 @@
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="n">
-        <v>148666667</v>
+        <v>134000000</v>
       </c>
       <c r="F71" s="16" t="n">
-        <v>134000000</v>
+        <v>123555556</v>
       </c>
       <c r="G71" s="16" t="n">
-        <v>123555556</v>
+        <v>108909091</v>
       </c>
       <c r="H71" s="16" t="n">
-        <v>108909091</v>
+        <v>112666667</v>
       </c>
       <c r="I71" s="16" t="n">
-        <v>112666667</v>
+        <v>173733333</v>
       </c>
       <c r="J71" s="16" t="n">
-        <v>173733333</v>
+        <v>170380952</v>
       </c>
       <c r="K71" s="16" t="n">
-        <v>170380952</v>
+        <v>169071429</v>
       </c>
       <c r="L71" s="16" t="n">
-        <v>169071429</v>
+        <v>169000000</v>
       </c>
       <c r="M71" s="16" t="n">
-        <v>169000000</v>
+        <v>180526316</v>
       </c>
       <c r="N71" s="16" t="n">
-        <v>180526316</v>
+        <v>232444444</v>
       </c>
       <c r="O71" s="16" t="n">
-        <v>232444444</v>
+        <v>213750000</v>
       </c>
       <c r="P71" s="16" t="n">
-        <v>213750000</v>
+        <v>246111111</v>
       </c>
       <c r="Q71" s="16" t="n">
-        <v>246111111</v>
+        <v>249666667</v>
       </c>
       <c r="R71" s="16" t="n">
-        <v>249666667</v>
+        <v>233736842</v>
       </c>
       <c r="S71" s="16" t="n">
-        <v>233736842</v>
+        <v>255818182</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>255818182</v>
+        <v>230583333</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>230583333</v>
+        <v>273466667</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>273466667</v>
+        <v>324631579</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>324631579</v>
+        <v>363444444</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>363444444</v>
+        <v>386500000</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>386500000</v>
+        <v>358750000</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>358750000</v>
+        <v>347857143</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>347857143</v>
+        <v>454230769</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>454230769</v>
+        <v>387421053</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>387421053</v>
+        <v>357285714</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>357285714</v>
+        <v>339181818</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>339181818</v>
+        <v>334736842</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>334736842</v>
+        <v>345400000</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>345400000</v>
+        <v>329500000</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>329500000</v>
+        <v>331090909</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>331090909</v>
+        <v>319454545</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>319454545</v>
+        <v>332000000</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>332000000</v>
+        <v>328333333</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>328333333</v>
+        <v>339769231</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>339769231</v>
+        <v>349875000</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>349875000</v>
+        <v>354625000</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>354625000</v>
+        <v>326923077</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>326923077</v>
+        <v>408500000</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>408500000</v>
+        <v>569090909</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>569090909</v>
+        <v>543600000</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>543600000</v>
+        <v>598222222</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>598222222</v>
+        <v>621888889</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>621888889</v>
+        <v>844285714</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>844285714</v>
+        <v>750812500</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>750812500</v>
+        <v>735125000</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>735125000</v>
+        <v>722894737</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>722894737</v>
+        <v>744318182</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>744318182</v>
+        <v>687318182</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>687318182</v>
+        <v>711600000</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>711600000</v>
+        <v>762333333</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10870,8 +10870,8 @@
       <c r="U73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V73" s="13" t="s">
-        <v>57</v>
+      <c r="V73" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="W73" s="13" t="n">
         <v>0</v>
@@ -10894,8 +10894,8 @@
       <c r="AC73" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD73" s="13" t="n">
-        <v>0</v>
+      <c r="AD73" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE73" s="13" t="s">
         <v>57</v>
